--- a/correlation/input_data/BOF_data.xlsx
+++ b/correlation/input_data/BOF_data.xlsx
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
-  <si>
-    <t>Index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>r0</t>
   </si>
@@ -58,23 +55,8 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -569,146 +551,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1022,955 +1000,814 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="6" width="9" style="2"/>
+    <col min="1" max="1" width="12.8888888888889" style="1"/>
+    <col min="2" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>3.43684387207031</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1">
         <v>9.22569179534912</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="1">
         <v>933</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1">
         <v>341.117767333984</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E2" s="1">
         <v>672.763732910156</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>3.41386294364929</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1">
         <v>9.05601024627686</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C3" s="1">
         <v>934.599975585938</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1">
         <v>334.460754394531</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E3" s="1">
         <v>661.249877929688</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>3.41249394416809</v>
       </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
         <v>9.00272178649902</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="1">
         <v>999.799987792969</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D4" s="1">
         <v>327.374145507813</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="1">
         <v>647.545837402344</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>3.42609143257141</v>
       </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
         <v>9.02519702911377</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C5" s="1">
         <v>980.700012207031</v>
       </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1">
         <v>322.459289550781</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1">
         <v>638.184448242188</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>3.44973564147949</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1">
         <v>9.09205913543701</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C6" s="1">
         <v>1339.90002441406</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
         <v>319.594451904297</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E6" s="1">
         <v>628.856140136719</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>3.47111201286316</v>
       </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1">
         <v>9.15549182891846</v>
       </c>
-      <c r="D7" s="2">
+      <c r="C7" s="1">
         <v>1747.59997558594</v>
       </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1">
         <v>319.005187988281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="E7" s="1">
         <v>621.564086914063</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
         <v>3.49657130241394</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1">
         <v>9.23313140869141</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C8" s="1">
         <v>1783.90002441406</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D8" s="1">
         <v>319.837219238281</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E8" s="1">
         <v>621.6708984375</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>3.52112197875977</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1">
         <v>9.31008148193359</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C9" s="1">
         <v>1786.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D9" s="1">
         <v>322.247741699219</v>
       </c>
-      <c r="F9" s="2">
+      <c r="E9" s="1">
         <v>624.95751953125</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
         <v>3.5437068939209</v>
       </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
         <v>9.37882995605469</v>
       </c>
-      <c r="D10" s="2">
+      <c r="C10" s="1">
         <v>1804.09997558594</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D10" s="1">
         <v>322.909851074219</v>
       </c>
-      <c r="F10" s="2">
+      <c r="E10" s="1">
         <v>626.623657226563</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
         <v>3.56693911552429</v>
       </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
         <v>9.44835948944092</v>
       </c>
-      <c r="D11" s="2">
+      <c r="C11" s="1">
         <v>1788.5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="D11" s="1">
         <v>325.439392089844</v>
       </c>
-      <c r="F11" s="2">
+      <c r="E11" s="1">
         <v>631.996704101563</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
         <v>3.59151124954224</v>
       </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
         <v>9.5230712890625</v>
       </c>
-      <c r="D12" s="2">
+      <c r="C12" s="1">
         <v>1816.59997558594</v>
       </c>
-      <c r="E12" s="2">
+      <c r="D12" s="1">
         <v>327.901184082031</v>
       </c>
-      <c r="F12" s="2">
+      <c r="E12" s="1">
         <v>632.762145996094</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
         <v>3.61057209968567</v>
       </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1">
         <v>9.57964611053467</v>
       </c>
-      <c r="D13" s="2">
+      <c r="C13" s="1">
         <v>1834.5</v>
       </c>
-      <c r="E13" s="2">
+      <c r="D13" s="1">
         <v>330.086853027344</v>
       </c>
-      <c r="F13" s="2">
+      <c r="E13" s="1">
         <v>635.375305175781</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
         <v>3.62801861763</v>
       </c>
-      <c r="C14" s="2">
+      <c r="B14" s="1">
         <v>9.61696147918701</v>
       </c>
-      <c r="D14" s="2">
+      <c r="C14" s="1">
         <v>1879.09997558594</v>
       </c>
-      <c r="E14" s="2">
+      <c r="D14" s="1">
         <v>333.850006103516</v>
       </c>
-      <c r="F14" s="2">
+      <c r="E14" s="1">
         <v>636.865966796875</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
         <v>3.64580297470093</v>
       </c>
-      <c r="C15" s="2">
+      <c r="B15" s="1">
         <v>9.64578819274902</v>
       </c>
-      <c r="D15" s="2">
+      <c r="C15" s="1">
         <v>1943.90002441406</v>
       </c>
-      <c r="E15" s="2">
+      <c r="D15" s="1">
         <v>339.183288574219</v>
       </c>
-      <c r="F15" s="2">
+      <c r="E15" s="1">
         <v>638.848205566406</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
         <v>3.66071057319641</v>
       </c>
-      <c r="C16" s="2">
+      <c r="B16" s="1">
         <v>9.67405891418457</v>
       </c>
-      <c r="D16" s="2">
+      <c r="C16" s="1">
         <v>1937.40002441406</v>
       </c>
-      <c r="E16" s="2">
+      <c r="D16" s="1">
         <v>344.631408691406</v>
       </c>
-      <c r="F16" s="2">
+      <c r="E16" s="1">
         <v>651.4423828125</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
         <v>3.68251943588257</v>
       </c>
-      <c r="C17" s="2">
+      <c r="B17" s="1">
         <v>9.72962856292725</v>
       </c>
-      <c r="D17" s="2">
+      <c r="C17" s="1">
         <v>1927.59997558594</v>
       </c>
-      <c r="E17" s="2">
+      <c r="D17" s="1">
         <v>348.233337402344</v>
       </c>
-      <c r="F17" s="2">
+      <c r="E17" s="1">
         <v>656.8359375</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
         <v>3.70278787612915</v>
       </c>
-      <c r="C18" s="2">
+      <c r="B18" s="1">
         <v>9.78088188171387</v>
       </c>
-      <c r="D18" s="2">
+      <c r="C18" s="1">
         <v>1911.19995117187</v>
       </c>
-      <c r="E18" s="2">
+      <c r="D18" s="1">
         <v>349.8408203125</v>
       </c>
-      <c r="F18" s="2">
+      <c r="E18" s="1">
         <v>662.027465820313</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
         <v>3.7150764465332</v>
       </c>
-      <c r="C19" s="2">
+      <c r="B19" s="1">
         <v>9.80541610717773</v>
       </c>
-      <c r="D19" s="2">
+      <c r="C19" s="1">
         <v>1883.40002441406</v>
       </c>
-      <c r="E19" s="2">
+      <c r="D19" s="1">
         <v>352.301116943359</v>
       </c>
-      <c r="F19" s="2">
+      <c r="E19" s="1">
         <v>669.767456054688</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
         <v>3.72894811630249</v>
       </c>
-      <c r="C20" s="2">
+      <c r="B20" s="1">
         <v>9.8261547088623</v>
       </c>
-      <c r="D20" s="2">
+      <c r="C20" s="1">
         <v>1859.40002441406</v>
       </c>
-      <c r="E20" s="2">
+      <c r="D20" s="1">
         <v>355.485900878906</v>
       </c>
-      <c r="F20" s="2">
+      <c r="E20" s="1">
         <v>676.174072265625</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
         <v>3.7394962310791</v>
       </c>
-      <c r="C21" s="2">
+      <c r="B21" s="1">
         <v>9.83631896972656</v>
       </c>
-      <c r="D21" s="2">
+      <c r="C21" s="1">
         <v>1860.59997558594</v>
       </c>
-      <c r="E21" s="2">
+      <c r="D21" s="1">
         <v>358.657165527344</v>
       </c>
-      <c r="F21" s="2">
+      <c r="E21" s="1">
         <v>680.317077636719</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>3.74292302131653</v>
       </c>
-      <c r="C22" s="2">
+      <c r="B22" s="1">
         <v>9.82752799987793</v>
       </c>
-      <c r="D22" s="2">
+      <c r="C22" s="1">
         <v>1874.69995117187</v>
       </c>
-      <c r="E22" s="2">
+      <c r="D22" s="1">
         <v>361.694152832031</v>
       </c>
-      <c r="F22" s="2">
+      <c r="E22" s="1">
         <v>683.149047851563</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
         <v>3.74743127822876</v>
       </c>
-      <c r="C23" s="2">
+      <c r="B23" s="1">
         <v>9.81047344207764</v>
       </c>
-      <c r="D23" s="2">
+      <c r="C23" s="1">
         <v>1875</v>
       </c>
-      <c r="E23" s="2">
+      <c r="D23" s="1">
         <v>362.717651367188</v>
       </c>
-      <c r="F23" s="2">
+      <c r="E23" s="1">
         <v>687.136108398438</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
         <v>3.73983883857727</v>
       </c>
-      <c r="C24" s="2">
+      <c r="B24" s="1">
         <v>9.75671482086182</v>
       </c>
-      <c r="D24" s="2">
+      <c r="C24" s="1">
         <v>1863.80004882812</v>
       </c>
-      <c r="E24" s="2">
+      <c r="D24" s="1">
         <v>364.082641601563</v>
       </c>
-      <c r="F24" s="2">
+      <c r="E24" s="1">
         <v>693.695007324219</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
         <v>3.73194766044617</v>
       </c>
-      <c r="C25" s="2">
+      <c r="B25" s="1">
         <v>9.7025899887085</v>
       </c>
-      <c r="D25" s="2">
+      <c r="C25" s="1">
         <v>1853</v>
       </c>
-      <c r="E25" s="2">
+      <c r="D25" s="1">
         <v>367.032073974609</v>
       </c>
-      <c r="F25" s="2">
+      <c r="E25" s="1">
         <v>700.895263671875</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
         <v>3.71902203559875</v>
       </c>
-      <c r="C26" s="2">
+      <c r="B26" s="1">
         <v>9.6303596496582</v>
       </c>
-      <c r="D26" s="2">
+      <c r="C26" s="1">
         <v>1843.19995117187</v>
       </c>
-      <c r="E26" s="2">
+      <c r="D26" s="1">
         <v>371.166656494141</v>
       </c>
-      <c r="F26" s="2">
+      <c r="E26" s="1">
         <v>710.549499511719</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
         <v>3.70047116279602</v>
       </c>
-      <c r="C27" s="2">
+      <c r="B27" s="1">
         <v>9.53596305847168</v>
       </c>
-      <c r="D27" s="2">
+      <c r="C27" s="1">
         <v>1898.40002441406</v>
       </c>
-      <c r="E27" s="2">
+      <c r="D27" s="1">
         <v>376.178802490234</v>
       </c>
-      <c r="F27" s="2">
+      <c r="E27" s="1">
         <v>711.356506347656</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
         <v>3.67427897453308</v>
       </c>
-      <c r="C28" s="2">
+      <c r="B28" s="1">
         <v>9.41668319702148</v>
       </c>
-      <c r="D28" s="2">
+      <c r="C28" s="1">
         <v>1906.59997558594</v>
       </c>
-      <c r="E28" s="2">
+      <c r="D28" s="1">
         <v>382.077850341797</v>
       </c>
-      <c r="F28" s="2">
+      <c r="E28" s="1">
         <v>721.590087890625</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
         <v>3.64281272888184</v>
       </c>
-      <c r="C29" s="2">
+      <c r="B29" s="1">
         <v>9.28048992156982</v>
       </c>
-      <c r="D29" s="2">
+      <c r="C29" s="1">
         <v>1907.40002441406</v>
       </c>
-      <c r="E29" s="2">
+      <c r="D29" s="1">
         <v>388.164489746094</v>
       </c>
-      <c r="F29" s="2">
+      <c r="E29" s="1">
         <v>734.166137695313</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
         <v>3.6074047088623</v>
       </c>
-      <c r="C30" s="2">
+      <c r="B30" s="1">
         <v>9.13025760650635</v>
       </c>
-      <c r="D30" s="2">
+      <c r="C30" s="1">
         <v>1923.09997558594</v>
       </c>
-      <c r="E30" s="2">
+      <c r="D30" s="1">
         <v>395.140960693359</v>
       </c>
-      <c r="F30" s="2">
+      <c r="E30" s="1">
         <v>748.337463378906</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
         <v>3.57170677185059</v>
       </c>
-      <c r="C31" s="2">
+      <c r="B31" s="1">
         <v>8.97068881988525</v>
       </c>
-      <c r="D31" s="2">
+      <c r="C31" s="1">
         <v>1905.40002441406</v>
       </c>
-      <c r="E31" s="2">
+      <c r="D31" s="1">
         <v>399.412567138672</v>
       </c>
-      <c r="F31" s="2">
+      <c r="E31" s="1">
         <v>760.139770507813</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
         <v>3.52297520637512</v>
       </c>
-      <c r="C32" s="2">
+      <c r="B32" s="1">
         <v>8.78235912322998</v>
       </c>
-      <c r="D32" s="2">
+      <c r="C32" s="1">
         <v>1917</v>
       </c>
-      <c r="E32" s="2">
+      <c r="D32" s="1">
         <v>403.341247558594</v>
       </c>
-      <c r="F32" s="2">
+      <c r="E32" s="1">
         <v>773.919067382813</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
         <v>3.4623749256134</v>
       </c>
-      <c r="C33" s="2">
+      <c r="B33" s="1">
         <v>8.55540943145752</v>
       </c>
-      <c r="D33" s="2">
+      <c r="C33" s="1">
         <v>2287.10009765625</v>
       </c>
-      <c r="E33" s="2">
+      <c r="D33" s="1">
         <v>414.512115478516</v>
       </c>
-      <c r="F33" s="2">
+      <c r="E33" s="1">
         <v>690.032592773438</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
         <v>3.40612411499023</v>
       </c>
-      <c r="C34" s="2">
+      <c r="B34" s="1">
         <v>8.33749103546143</v>
       </c>
-      <c r="D34" s="2">
+      <c r="C34" s="1">
         <v>2273.69995117188</v>
       </c>
-      <c r="E34" s="2">
+      <c r="D34" s="1">
         <v>435.976013183594</v>
       </c>
-      <c r="F34" s="2">
+      <c r="E34" s="1">
         <v>712.542785644531</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
         <v>3.33005833625793</v>
       </c>
-      <c r="C35" s="2">
+      <c r="B35" s="1">
         <v>8.0565824508667</v>
       </c>
-      <c r="D35" s="2">
+      <c r="C35" s="1">
         <v>2233.89990234375</v>
       </c>
-      <c r="E35" s="2">
+      <c r="D35" s="1">
         <v>466.745941162109</v>
       </c>
-      <c r="F35" s="2">
+      <c r="E35" s="1">
         <v>753.131774902344</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
         <v>3.25526809692383</v>
       </c>
-      <c r="C36" s="2">
+      <c r="B36" s="1">
         <v>7.78249883651733</v>
       </c>
-      <c r="D36" s="2">
+      <c r="C36" s="1">
         <v>2136.5</v>
       </c>
-      <c r="E36" s="2">
+      <c r="D36" s="1">
         <v>499.923980712891</v>
       </c>
-      <c r="F36" s="2">
+      <c r="E36" s="1">
         <v>828.706237792969</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
         <v>3.18034505844116</v>
       </c>
-      <c r="C37" s="2">
+      <c r="B37" s="1">
         <v>7.50584697723389</v>
       </c>
-      <c r="D37" s="2">
+      <c r="C37" s="1">
         <v>2089.10009765625</v>
       </c>
-      <c r="E37" s="2">
+      <c r="D37" s="1">
         <v>532.262817382813</v>
       </c>
-      <c r="F37" s="2">
+      <c r="E37" s="1">
         <v>875.065734863281</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
         <v>3.08882331848144</v>
       </c>
-      <c r="C38" s="2">
+      <c r="B38" s="1">
         <v>7.1904182434082</v>
       </c>
-      <c r="D38" s="2">
+      <c r="C38" s="1">
         <v>2053.39990234375</v>
       </c>
-      <c r="E38" s="2">
+      <c r="D38" s="1">
         <v>574.255126953125</v>
       </c>
-      <c r="F38" s="2">
+      <c r="E38" s="1">
         <v>919.173156738281</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
         <v>2.98796319961548</v>
       </c>
-      <c r="C39" s="2">
+      <c r="B39" s="1">
         <v>6.83867645263672</v>
       </c>
-      <c r="D39" s="2">
+      <c r="C39" s="1">
         <v>2020</v>
       </c>
-      <c r="E39" s="2">
+      <c r="D39" s="1">
         <v>584.514831542969</v>
       </c>
-      <c r="F39" s="2">
+      <c r="E39" s="1">
         <v>943.890930175781</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
         <v>2.89973878860474</v>
       </c>
-      <c r="C40" s="2">
+      <c r="B40" s="1">
         <v>6.53228902816772</v>
       </c>
-      <c r="D40" s="2">
+      <c r="C40" s="1">
         <v>1969.5</v>
       </c>
-      <c r="E40" s="2">
+      <c r="D40" s="1">
         <v>618.833862304688</v>
       </c>
-      <c r="F40" s="2">
+      <c r="E40" s="1">
         <v>991.336791992188</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
         <v>2.78647541999817</v>
       </c>
-      <c r="C41" s="2">
+      <c r="B41" s="1">
         <v>6.14847803115845</v>
       </c>
-      <c r="D41" s="2">
+      <c r="C41" s="1">
         <v>1900.59997558594</v>
       </c>
-      <c r="E41" s="2">
+      <c r="D41" s="1">
         <v>665.704711914063</v>
       </c>
-      <c r="F41" s="2">
+      <c r="E41" s="1">
         <v>1058.40270996094</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="3">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2">
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
         <v>2.67128229141235</v>
       </c>
-      <c r="C42" s="2">
+      <c r="B42" s="1">
         <v>5.76543807983398</v>
       </c>
-      <c r="D42" s="2">
+      <c r="C42" s="1">
         <v>1903.59997558594</v>
       </c>
-      <c r="E42" s="2">
+      <c r="D42" s="1">
         <v>698.009826660156</v>
       </c>
-      <c r="F42" s="2">
+      <c r="E42" s="1">
         <v>1067.70385742187</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2">
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
         <v>2.55824112892151</v>
       </c>
-      <c r="C43" s="2">
+      <c r="B43" s="1">
         <v>5.39045143127441</v>
       </c>
-      <c r="D43" s="2">
+      <c r="C43" s="1">
         <v>1792.40002441406</v>
       </c>
-      <c r="E43" s="2">
+      <c r="D43" s="1">
         <v>722.881958007813</v>
       </c>
-      <c r="F43" s="2">
+      <c r="E43" s="1">
         <v>1146.0244140625</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2">
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
         <v>2.43326783180237</v>
       </c>
-      <c r="C44" s="2">
+      <c r="B44" s="1">
         <v>4.9849328994751</v>
       </c>
-      <c r="D44" s="2">
+      <c r="C44" s="1">
         <v>1687</v>
       </c>
-      <c r="E44" s="2">
+      <c r="D44" s="1">
         <v>747.6484375</v>
       </c>
-      <c r="F44" s="2">
+      <c r="E44" s="1">
         <v>1211.72265625</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
         <v>2.31082010269165</v>
       </c>
-      <c r="C45" s="2">
+      <c r="B45" s="1">
         <v>4.58562135696411</v>
       </c>
-      <c r="D45" s="2">
+      <c r="C45" s="1">
         <v>1616.19995117187</v>
       </c>
-      <c r="E45" s="2">
+      <c r="D45" s="1">
         <v>810.033752441406</v>
       </c>
-      <c r="F45" s="2">
+      <c r="E45" s="1">
         <v>1265.94714355469</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2">
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
         <v>2.17299199104309</v>
       </c>
-      <c r="C46" s="2">
+      <c r="B46" s="1">
         <v>4.14854955673218</v>
       </c>
-      <c r="D46" s="2">
+      <c r="C46" s="1">
         <v>1503.5</v>
       </c>
-      <c r="E46" s="2">
+      <c r="D46" s="1">
         <v>816.301879882813</v>
       </c>
-      <c r="F46" s="2">
+      <c r="E46" s="1">
         <v>1292.40661621094</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="3">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2">
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
         <v>2.03200960159302</v>
       </c>
-      <c r="C47" s="2">
+      <c r="B47" s="1">
         <v>3.70825695991516</v>
       </c>
-      <c r="D47" s="2">
+      <c r="C47" s="1">
         <v>1448.80004882812</v>
       </c>
-      <c r="E47" s="2">
+      <c r="D47" s="1">
         <v>829.6494140625</v>
       </c>
-      <c r="F47" s="2">
+      <c r="E47" s="1">
         <v>1256.06164550781</v>
       </c>
     </row>
@@ -1984,3635 +1821,3092 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="6" width="9" style="2"/>
+    <col min="1" max="1" width="12.8888888888889" style="1"/>
+    <col min="2" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>3.43684387207031</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1">
         <v>9.22569179534912</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="1">
         <v>933</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1">
         <v>341.117767333984</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E2" s="1">
         <v>672.763732910156</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>3.43684387207031</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1">
         <v>9.22569179534912</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C3" s="1">
         <v>933</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1">
         <v>341.117767333984</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E3" s="1">
         <v>672.763732910156</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>3.44166994094849</v>
       </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
         <v>9.25044536590576</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="1">
         <v>919.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D4" s="1">
         <v>342.569519042969</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="1">
         <v>675.530639648438</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>3.53117442131042</v>
       </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
         <v>9.70151615142822</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C5" s="1">
         <v>834</v>
       </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1">
         <v>350.708099365234</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1">
         <v>689.029907226563</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>3.61799311637878</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1">
         <v>10.1240129470825</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C6" s="1">
         <v>829.799987792969</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
         <v>355.236145019531</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E6" s="1">
         <v>694.009826660156</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>3.68421483039856</v>
       </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1">
         <v>10.4303617477417</v>
       </c>
-      <c r="D7" s="2">
+      <c r="C7" s="1">
         <v>1571.19995117187</v>
       </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1">
         <v>357.596130371094</v>
       </c>
-      <c r="F7" s="2">
+      <c r="E7" s="1">
         <v>685.579345703125</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
         <v>3.73570895195007</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1">
         <v>10.6571254730225</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C8" s="1">
         <v>1919.30004882812</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D8" s="1">
         <v>362.512512207031</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E8" s="1">
         <v>684.835266113281</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>3.79064321517944</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1">
         <v>10.9110088348389</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C9" s="1">
         <v>1918.80004882812</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D9" s="1">
         <v>370.23583984375</v>
       </c>
-      <c r="F9" s="2">
+      <c r="E9" s="1">
         <v>697.814575195313</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
         <v>3.83961606025696</v>
       </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
         <v>11.1301670074463</v>
       </c>
-      <c r="D10" s="2">
+      <c r="C10" s="1">
         <v>1928.69995117187</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D10" s="1">
         <v>377.125152587891</v>
       </c>
-      <c r="F10" s="2">
+      <c r="E10" s="1">
         <v>706.855346679688</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
         <v>3.88883018493652</v>
       </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
         <v>11.3404741287231</v>
       </c>
-      <c r="D11" s="2">
+      <c r="C11" s="1">
         <v>1936.80004882812</v>
       </c>
-      <c r="E11" s="2">
+      <c r="D11" s="1">
         <v>383.383850097656</v>
       </c>
-      <c r="F11" s="2">
+      <c r="E11" s="1">
         <v>714.372375488281</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
         <v>3.93619275093079</v>
       </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
         <v>11.5330667495728</v>
       </c>
-      <c r="D12" s="2">
+      <c r="C12" s="1">
         <v>1960.69995117187</v>
       </c>
-      <c r="E12" s="2">
+      <c r="D12" s="1">
         <v>389.145202636719</v>
       </c>
-      <c r="F12" s="2">
+      <c r="E12" s="1">
         <v>717.291137695313</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
         <v>3.98242044448852</v>
       </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1">
         <v>11.72496509552</v>
       </c>
-      <c r="D13" s="2">
+      <c r="C13" s="1">
         <v>1955</v>
       </c>
-      <c r="E13" s="2">
+      <c r="D13" s="1">
         <v>395.886810302734</v>
       </c>
-      <c r="F13" s="2">
+      <c r="E13" s="1">
         <v>728.15185546875</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
         <v>4.02249336242676</v>
       </c>
-      <c r="C14" s="2">
+      <c r="B14" s="1">
         <v>11.8922023773193</v>
       </c>
-      <c r="D14" s="2">
+      <c r="C14" s="1">
         <v>1956.59997558594</v>
       </c>
-      <c r="E14" s="2">
+      <c r="D14" s="1">
         <v>400.668914794922</v>
       </c>
-      <c r="F14" s="2">
+      <c r="E14" s="1">
         <v>735.654968261719</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
         <v>4.05916929244995</v>
       </c>
-      <c r="C15" s="2">
+      <c r="B15" s="1">
         <v>12.0411682128906</v>
       </c>
-      <c r="D15" s="2">
+      <c r="C15" s="1">
         <v>1955.30004882812</v>
       </c>
-      <c r="E15" s="2">
+      <c r="D15" s="1">
         <v>405.166595458984</v>
       </c>
-      <c r="F15" s="2">
+      <c r="E15" s="1">
         <v>743.175170898438</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
         <v>4.09602737426758</v>
       </c>
-      <c r="C16" s="2">
+      <c r="B16" s="1">
         <v>12.1842927932739</v>
       </c>
-      <c r="D16" s="2">
+      <c r="C16" s="1">
         <v>1955</v>
       </c>
-      <c r="E16" s="2">
+      <c r="D16" s="1">
         <v>410.630767822266</v>
       </c>
-      <c r="F16" s="2">
+      <c r="E16" s="1">
         <v>750.171081542969</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
         <v>4.13315868377685</v>
       </c>
-      <c r="C17" s="2">
+      <c r="B17" s="1">
         <v>12.3215026855469</v>
       </c>
-      <c r="D17" s="2">
+      <c r="C17" s="1">
         <v>1949.5</v>
       </c>
-      <c r="E17" s="2">
+      <c r="D17" s="1">
         <v>416.179290771484</v>
       </c>
-      <c r="F17" s="2">
+      <c r="E17" s="1">
         <v>759.702880859375</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
         <v>4.16262674331665</v>
       </c>
-      <c r="C18" s="2">
+      <c r="B18" s="1">
         <v>12.4367752075195</v>
       </c>
-      <c r="D18" s="2">
+      <c r="C18" s="1">
         <v>1942.5</v>
       </c>
-      <c r="E18" s="2">
+      <c r="D18" s="1">
         <v>420.195129394531</v>
       </c>
-      <c r="F18" s="2">
+      <c r="E18" s="1">
         <v>767.465637207031</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
         <v>4.19641923904419</v>
       </c>
-      <c r="C19" s="2">
+      <c r="B19" s="1">
         <v>12.5744514465332</v>
       </c>
-      <c r="D19" s="2">
+      <c r="C19" s="1">
         <v>1936.30004882812</v>
       </c>
-      <c r="E19" s="2">
+      <c r="D19" s="1">
         <v>424.219665527344</v>
       </c>
-      <c r="F19" s="2">
+      <c r="E19" s="1">
         <v>774.525512695313</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
         <v>4.22804880142212</v>
       </c>
-      <c r="C20" s="2">
+      <c r="B20" s="1">
         <v>12.6997566223144</v>
       </c>
-      <c r="D20" s="2">
+      <c r="C20" s="1">
         <v>1921.5</v>
       </c>
-      <c r="E20" s="2">
+      <c r="D20" s="1">
         <v>428.140441894531</v>
       </c>
-      <c r="F20" s="2">
+      <c r="E20" s="1">
         <v>783.819458007813</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
         <v>4.25752067565918</v>
       </c>
-      <c r="C21" s="2">
+      <c r="B21" s="1">
         <v>12.8110809326172</v>
       </c>
-      <c r="D21" s="2">
+      <c r="C21" s="1">
         <v>1925.19995117187</v>
       </c>
-      <c r="E21" s="2">
+      <c r="D21" s="1">
         <v>430.573883056641</v>
       </c>
-      <c r="F21" s="2">
+      <c r="E21" s="1">
         <v>786.618957519531</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>4.27923917770386</v>
       </c>
-      <c r="C22" s="2">
+      <c r="B22" s="1">
         <v>12.8930759429932</v>
       </c>
-      <c r="D22" s="2">
+      <c r="C22" s="1">
         <v>1920.80004882812</v>
       </c>
-      <c r="E22" s="2">
+      <c r="D22" s="1">
         <v>434.196868896484</v>
       </c>
-      <c r="F22" s="2">
+      <c r="E22" s="1">
         <v>792.932800292969</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
         <v>4.3069486618042</v>
       </c>
-      <c r="C23" s="2">
+      <c r="B23" s="1">
         <v>13.0016069412231</v>
       </c>
-      <c r="D23" s="2">
+      <c r="C23" s="1">
         <v>1905.09997558594</v>
       </c>
-      <c r="E23" s="2">
+      <c r="D23" s="1">
         <v>437.786376953125</v>
       </c>
-      <c r="F23" s="2">
+      <c r="E23" s="1">
         <v>801.936889648438</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
         <v>4.33410882949829</v>
       </c>
-      <c r="C24" s="2">
+      <c r="B24" s="1">
         <v>13.1103649139404</v>
       </c>
-      <c r="D24" s="2">
+      <c r="C24" s="1">
         <v>1911</v>
       </c>
-      <c r="E24" s="2">
+      <c r="D24" s="1">
         <v>441.830993652344</v>
       </c>
-      <c r="F24" s="2">
+      <c r="E24" s="1">
         <v>804.599609375</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
         <v>4.35591220855713</v>
       </c>
-      <c r="C25" s="2">
+      <c r="B25" s="1">
         <v>13.1933212280273</v>
       </c>
-      <c r="D25" s="2">
+      <c r="C25" s="1">
         <v>1913.09997558594</v>
       </c>
-      <c r="E25" s="2">
+      <c r="D25" s="1">
         <v>445.849609375</v>
       </c>
-      <c r="F25" s="2">
+      <c r="E25" s="1">
         <v>807.918090820313</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
         <v>4.38068819046021</v>
       </c>
-      <c r="C26" s="2">
+      <c r="B26" s="1">
         <v>13.2920961380005</v>
       </c>
-      <c r="D26" s="2">
+      <c r="C26" s="1">
         <v>1902.69995117187</v>
       </c>
-      <c r="E26" s="2">
+      <c r="D26" s="1">
         <v>449.554382324219</v>
       </c>
-      <c r="F26" s="2">
+      <c r="E26" s="1">
         <v>815.237487792969</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
         <v>4.40078830718994</v>
       </c>
-      <c r="C27" s="2">
+      <c r="B27" s="1">
         <v>13.3870210647583</v>
       </c>
-      <c r="D27" s="2">
+      <c r="C27" s="1">
         <v>1892.30004882812</v>
       </c>
-      <c r="E27" s="2">
+      <c r="D27" s="1">
         <v>453.038024902344</v>
       </c>
-      <c r="F27" s="2">
+      <c r="E27" s="1">
         <v>822.342895507813</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
         <v>4.41882610321045</v>
       </c>
-      <c r="C28" s="2">
+      <c r="B28" s="1">
         <v>13.4733781814575</v>
       </c>
-      <c r="D28" s="2">
+      <c r="C28" s="1">
         <v>1859.40002441406</v>
       </c>
-      <c r="E28" s="2">
+      <c r="D28" s="1">
         <v>456.640380859375</v>
       </c>
-      <c r="F28" s="2">
+      <c r="E28" s="1">
         <v>836.329772949219</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
         <v>4.43485927581787</v>
       </c>
-      <c r="C29" s="2">
+      <c r="B29" s="1">
         <v>13.5455045700073</v>
       </c>
-      <c r="D29" s="2">
+      <c r="C29" s="1">
         <v>1851.09997558594</v>
       </c>
-      <c r="E29" s="2">
+      <c r="D29" s="1">
         <v>461.5322265625</v>
       </c>
-      <c r="F29" s="2">
+      <c r="E29" s="1">
         <v>843.442504882813</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
         <v>4.4511022567749</v>
       </c>
-      <c r="C30" s="2">
+      <c r="B30" s="1">
         <v>13.6180448532104</v>
       </c>
-      <c r="D30" s="2">
+      <c r="C30" s="1">
         <v>1848.90002441406</v>
       </c>
-      <c r="E30" s="2">
+      <c r="D30" s="1">
         <v>465.985198974609</v>
       </c>
-      <c r="F30" s="2">
+      <c r="E30" s="1">
         <v>848.08642578125</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
         <v>4.46911334991455</v>
       </c>
-      <c r="C31" s="2">
+      <c r="B31" s="1">
         <v>13.6968154907227</v>
       </c>
-      <c r="D31" s="2">
+      <c r="C31" s="1">
         <v>1837.80004882812</v>
       </c>
-      <c r="E31" s="2">
+      <c r="D31" s="1">
         <v>470.594818115234</v>
       </c>
-      <c r="F31" s="2">
+      <c r="E31" s="1">
         <v>856.060241699219</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
         <v>4.48129940032959</v>
       </c>
-      <c r="C32" s="2">
+      <c r="B32" s="1">
         <v>13.7584581375122</v>
       </c>
-      <c r="D32" s="2">
+      <c r="C32" s="1">
         <v>1835.80004882812</v>
       </c>
-      <c r="E32" s="2">
+      <c r="D32" s="1">
         <v>475.282562255859</v>
       </c>
-      <c r="F32" s="2">
+      <c r="E32" s="1">
         <v>861.989135742188</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
         <v>4.49980545043945</v>
       </c>
-      <c r="C33" s="2">
+      <c r="B33" s="1">
         <v>13.8399229049683</v>
       </c>
-      <c r="D33" s="2">
+      <c r="C33" s="1">
         <v>1833.90002441406</v>
       </c>
-      <c r="E33" s="2">
+      <c r="D33" s="1">
         <v>480.121185302734</v>
       </c>
-      <c r="F33" s="2">
+      <c r="E33" s="1">
         <v>867.470336914063</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
         <v>4.51488256454468</v>
       </c>
-      <c r="C34" s="2">
+      <c r="B34" s="1">
         <v>13.907452583313</v>
       </c>
-      <c r="D34" s="2">
+      <c r="C34" s="1">
         <v>1829</v>
       </c>
-      <c r="E34" s="2">
+      <c r="D34" s="1">
         <v>484.872741699219</v>
       </c>
-      <c r="F34" s="2">
+      <c r="E34" s="1">
         <v>873.807250976563</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
         <v>4.52269411087036</v>
       </c>
-      <c r="C35" s="2">
+      <c r="B35" s="1">
         <v>13.9514284133911</v>
       </c>
-      <c r="D35" s="2">
+      <c r="C35" s="1">
         <v>1835.19995117187</v>
       </c>
-      <c r="E35" s="2">
+      <c r="D35" s="1">
         <v>488.221618652344</v>
       </c>
-      <c r="F35" s="2">
+      <c r="E35" s="1">
         <v>875.737915039063</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
         <v>4.53726625442505</v>
       </c>
-      <c r="C36" s="2">
+      <c r="B36" s="1">
         <v>14.0177612304687</v>
       </c>
-      <c r="D36" s="2">
+      <c r="C36" s="1">
         <v>1842</v>
       </c>
-      <c r="E36" s="2">
+      <c r="D36" s="1">
         <v>491.80029296875</v>
       </c>
-      <c r="F36" s="2">
+      <c r="E36" s="1">
         <v>877.15185546875</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
         <v>4.55115032196045</v>
       </c>
-      <c r="C37" s="2">
+      <c r="B37" s="1">
         <v>14.0890445709228</v>
       </c>
-      <c r="D37" s="2">
+      <c r="C37" s="1">
         <v>1834.5</v>
       </c>
-      <c r="E37" s="2">
+      <c r="D37" s="1">
         <v>495.038482666016</v>
       </c>
-      <c r="F37" s="2">
+      <c r="E37" s="1">
         <v>883.338684082031</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
         <v>4.56356906890869</v>
       </c>
-      <c r="C38" s="2">
+      <c r="B38" s="1">
         <v>14.1558284759522</v>
       </c>
-      <c r="D38" s="2">
+      <c r="C38" s="1">
         <v>1835.09997558594</v>
       </c>
-      <c r="E38" s="2">
+      <c r="D38" s="1">
         <v>498.712005615234</v>
       </c>
-      <c r="F38" s="2">
+      <c r="E38" s="1">
         <v>886.357116699219</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
         <v>4.57308721542358</v>
       </c>
-      <c r="C39" s="2">
+      <c r="B39" s="1">
         <v>14.2081422805786</v>
       </c>
-      <c r="D39" s="2">
+      <c r="C39" s="1">
         <v>1816.59997558594</v>
       </c>
-      <c r="E39" s="2">
+      <c r="D39" s="1">
         <v>501.842437744141</v>
       </c>
-      <c r="F39" s="2">
+      <c r="E39" s="1">
         <v>896.255249023438</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
         <v>4.58291101455688</v>
       </c>
-      <c r="C40" s="2">
+      <c r="B40" s="1">
         <v>14.2577877044678</v>
       </c>
-      <c r="D40" s="2">
+      <c r="C40" s="1">
         <v>1825.80004882812</v>
       </c>
-      <c r="E40" s="2">
+      <c r="D40" s="1">
         <v>504.566070556641</v>
       </c>
-      <c r="F40" s="2">
+      <c r="E40" s="1">
         <v>895.0927734375</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
         <v>4.58755826950073</v>
       </c>
-      <c r="C41" s="2">
+      <c r="B41" s="1">
         <v>14.2895736694336</v>
       </c>
-      <c r="D41" s="2">
+      <c r="C41" s="1">
         <v>1809.69995117187</v>
       </c>
-      <c r="E41" s="2">
+      <c r="D41" s="1">
         <v>507.601623535156</v>
       </c>
-      <c r="F41" s="2">
+      <c r="E41" s="1">
         <v>903.536254882813</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="3">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2">
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
         <v>4.59660720825195</v>
       </c>
-      <c r="C42" s="2">
+      <c r="B42" s="1">
         <v>14.3386859893799</v>
       </c>
-      <c r="D42" s="2">
+      <c r="C42" s="1">
         <v>1816.80004882812</v>
       </c>
-      <c r="E42" s="2">
+      <c r="D42" s="1">
         <v>509.847320556641</v>
       </c>
-      <c r="F42" s="2">
+      <c r="E42" s="1">
         <v>902.213684082031</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2">
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
         <v>4.60528516769409</v>
       </c>
-      <c r="C43" s="2">
+      <c r="B43" s="1">
         <v>14.3854236602783</v>
       </c>
-      <c r="D43" s="2">
+      <c r="C43" s="1">
         <v>1804.09997558594</v>
       </c>
-      <c r="E43" s="2">
+      <c r="D43" s="1">
         <v>512.222412109375</v>
       </c>
-      <c r="F43" s="2">
+      <c r="E43" s="1">
         <v>908.544128417969</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2">
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
         <v>4.61407947540283</v>
       </c>
-      <c r="C44" s="2">
+      <c r="B44" s="1">
         <v>14.4319944381714</v>
       </c>
-      <c r="D44" s="2">
+      <c r="C44" s="1">
         <v>1813.90002441406</v>
       </c>
-      <c r="E44" s="2">
+      <c r="D44" s="1">
         <v>514.552856445313</v>
       </c>
-      <c r="F44" s="2">
+      <c r="E44" s="1">
         <v>905.605590820313</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
         <v>4.6173152923584</v>
       </c>
-      <c r="C45" s="2">
+      <c r="B45" s="1">
         <v>14.4549808502197</v>
       </c>
-      <c r="D45" s="2">
+      <c r="C45" s="1">
         <v>1812</v>
       </c>
-      <c r="E45" s="2">
+      <c r="D45" s="1">
         <v>517.060852050781</v>
       </c>
-      <c r="F45" s="2">
+      <c r="E45" s="1">
         <v>907.67529296875</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2">
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
         <v>4.62446451187134</v>
       </c>
-      <c r="C46" s="2">
+      <c r="B46" s="1">
         <v>14.4848918914795</v>
       </c>
-      <c r="D46" s="2">
+      <c r="C46" s="1">
         <v>1795.90002441406</v>
       </c>
-      <c r="E46" s="2">
+      <c r="D46" s="1">
         <v>519.120056152344</v>
       </c>
-      <c r="F46" s="2">
+      <c r="E46" s="1">
         <v>914.823608398438</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="3">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2">
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
         <v>4.62911558151245</v>
       </c>
-      <c r="C47" s="2">
+      <c r="B47" s="1">
         <v>14.5050563812256</v>
       </c>
-      <c r="D47" s="2">
+      <c r="C47" s="1">
         <v>1791.30004882812</v>
       </c>
-      <c r="E47" s="2">
+      <c r="D47" s="1">
         <v>521.226806640625</v>
       </c>
-      <c r="F47" s="2">
+      <c r="E47" s="1">
         <v>916.829895019531</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2">
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
         <v>4.63098573684692</v>
       </c>
-      <c r="C48" s="2">
+      <c r="B48" s="1">
         <v>14.5159778594971</v>
       </c>
-      <c r="D48" s="2">
+      <c r="C48" s="1">
         <v>1779.30004882812</v>
       </c>
-      <c r="E48" s="2">
+      <c r="D48" s="1">
         <v>521.75341796875</v>
       </c>
-      <c r="F48" s="2">
+      <c r="E48" s="1">
         <v>920.882934570313</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="3">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
         <v>4.63574695587158</v>
       </c>
-      <c r="C49" s="2">
+      <c r="B49" s="1">
         <v>14.5282182693481</v>
       </c>
-      <c r="D49" s="2">
+      <c r="C49" s="1">
         <v>1771.90002441406</v>
       </c>
-      <c r="E49" s="2">
+      <c r="D49" s="1">
         <v>522.44580078125</v>
       </c>
-      <c r="F49" s="2">
+      <c r="E49" s="1">
         <v>924.005065917969</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="3">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
         <v>4.63841438293457</v>
       </c>
-      <c r="C50" s="2">
+      <c r="B50" s="1">
         <v>14.5373287200928</v>
       </c>
-      <c r="D50" s="2">
+      <c r="C50" s="1">
         <v>1763.09997558594</v>
       </c>
-      <c r="E50" s="2">
+      <c r="D50" s="1">
         <v>522.4990234375</v>
       </c>
-      <c r="F50" s="2">
+      <c r="E50" s="1">
         <v>926.681945800781</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="3">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
         <v>4.64226531982422</v>
       </c>
-      <c r="C51" s="2">
+      <c r="B51" s="1">
         <v>14.558575630188</v>
       </c>
-      <c r="D51" s="2">
+      <c r="C51" s="1">
         <v>1763.09997558594</v>
       </c>
-      <c r="E51" s="2">
+      <c r="D51" s="1">
         <v>522.724975585938</v>
       </c>
-      <c r="F51" s="2">
+      <c r="E51" s="1">
         <v>926.025390625</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="3">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
         <v>4.64335632324219</v>
       </c>
-      <c r="C52" s="2">
+      <c r="B52" s="1">
         <v>14.5683345794678</v>
       </c>
-      <c r="D52" s="2">
+      <c r="C52" s="1">
         <v>1762.40002441406</v>
       </c>
-      <c r="E52" s="2">
+      <c r="D52" s="1">
         <v>523.107788085938</v>
       </c>
-      <c r="F52" s="2">
+      <c r="E52" s="1">
         <v>925.621215820313</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="3">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2">
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
         <v>4.65108489990234</v>
       </c>
-      <c r="C53" s="2">
+      <c r="B53" s="1">
         <v>14.608057975769</v>
       </c>
-      <c r="D53" s="2">
+      <c r="C53" s="1">
         <v>1754.40002441406</v>
       </c>
-      <c r="E53" s="2">
+      <c r="D53" s="1">
         <v>523.420043945313</v>
       </c>
-      <c r="F53" s="2">
+      <c r="E53" s="1">
         <v>928.451782226563</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="3">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2">
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
         <v>4.64937114715576</v>
       </c>
-      <c r="C54" s="2">
+      <c r="B54" s="1">
         <v>14.6101093292236</v>
       </c>
-      <c r="D54" s="2">
+      <c r="C54" s="1">
         <v>1754.69995117187</v>
       </c>
-      <c r="E54" s="2">
+      <c r="D54" s="1">
         <v>523.820861816406</v>
       </c>
-      <c r="F54" s="2">
+      <c r="E54" s="1">
         <v>928.000366210938</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="3">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2">
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
         <v>4.6527681350708</v>
       </c>
-      <c r="C55" s="2">
+      <c r="B55" s="1">
         <v>14.6318082809448</v>
       </c>
-      <c r="D55" s="2">
+      <c r="C55" s="1">
         <v>1756.09997558594</v>
       </c>
-      <c r="E55" s="2">
+      <c r="D55" s="1">
         <v>524.418151855469</v>
       </c>
-      <c r="F55" s="2">
+      <c r="E55" s="1">
         <v>927.174499511719</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="3">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2">
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
         <v>4.65481948852539</v>
       </c>
-      <c r="C56" s="2">
+      <c r="B56" s="1">
         <v>14.6528167724609</v>
       </c>
-      <c r="D56" s="2">
+      <c r="C56" s="1">
         <v>1754.40002441406</v>
       </c>
-      <c r="E56" s="2">
+      <c r="D56" s="1">
         <v>524.594116210938</v>
       </c>
-      <c r="F56" s="2">
+      <c r="E56" s="1">
         <v>927.700378417969</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="3">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
         <v>4.6586856842041</v>
       </c>
-      <c r="C57" s="2">
+      <c r="B57" s="1">
         <v>14.6797790527344</v>
       </c>
-      <c r="D57" s="2">
+      <c r="C57" s="1">
         <v>1751.09997558594</v>
       </c>
-      <c r="E57" s="2">
+      <c r="D57" s="1">
         <v>524.44482421875</v>
       </c>
-      <c r="F57" s="2">
+      <c r="E57" s="1">
         <v>929.0498046875</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="3">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2">
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
         <v>4.65539598464966</v>
       </c>
-      <c r="C58" s="2">
+      <c r="B58" s="1">
         <v>14.68235206604</v>
       </c>
-      <c r="D58" s="2">
+      <c r="C58" s="1">
         <v>1752.69995117187</v>
       </c>
-      <c r="E58" s="2">
+      <c r="D58" s="1">
         <v>525.857543945313</v>
       </c>
-      <c r="F58" s="2">
+      <c r="E58" s="1">
         <v>928.528686523438</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="3">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
         <v>4.65892696380615</v>
       </c>
-      <c r="C59" s="2">
+      <c r="B59" s="1">
         <v>14.7092790603638</v>
       </c>
-      <c r="D59" s="2">
+      <c r="C59" s="1">
         <v>1745.69995117187</v>
       </c>
-      <c r="E59" s="2">
+      <c r="D59" s="1">
         <v>525.850830078125</v>
       </c>
-      <c r="F59" s="2">
+      <c r="E59" s="1">
         <v>931.573059082031</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="3">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2">
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
         <v>4.65832138061523</v>
       </c>
-      <c r="C60" s="2">
+      <c r="B60" s="1">
         <v>14.7224597930908</v>
       </c>
-      <c r="D60" s="2">
+      <c r="C60" s="1">
         <v>1743.59997558594</v>
       </c>
-      <c r="E60" s="2">
+      <c r="D60" s="1">
         <v>526.333190917969</v>
       </c>
-      <c r="F60" s="2">
+      <c r="E60" s="1">
         <v>932.253051757813</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="3">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2">
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
         <v>4.66230392456055</v>
       </c>
-      <c r="C61" s="2">
+      <c r="B61" s="1">
         <v>14.7500505447388</v>
       </c>
-      <c r="D61" s="2">
+      <c r="C61" s="1">
         <v>1745.80004882812</v>
       </c>
-      <c r="E61" s="2">
+      <c r="D61" s="1">
         <v>526.993530273438</v>
       </c>
-      <c r="F61" s="2">
+      <c r="E61" s="1">
         <v>931.822265625</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="3">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2">
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
         <v>4.66494274139404</v>
       </c>
-      <c r="C62" s="2">
+      <c r="B62" s="1">
         <v>14.7768297195435</v>
       </c>
-      <c r="D62" s="2">
+      <c r="C62" s="1">
         <v>1749.40002441406</v>
       </c>
-      <c r="E62" s="2">
+      <c r="D62" s="1">
         <v>527.62109375</v>
       </c>
-      <c r="F62" s="2">
+      <c r="E62" s="1">
         <v>930.740844726563</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="3">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2">
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
         <v>4.66455411911011</v>
       </c>
-      <c r="C63" s="2">
+      <c r="B63" s="1">
         <v>14.7874603271484</v>
       </c>
-      <c r="D63" s="2">
+      <c r="C63" s="1">
         <v>1740.19995117187</v>
       </c>
-      <c r="E63" s="2">
+      <c r="D63" s="1">
         <v>529.188537597656</v>
       </c>
-      <c r="F63" s="2">
+      <c r="E63" s="1">
         <v>935.249206542969</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="3">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2">
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
         <v>4.66758251190185</v>
       </c>
-      <c r="C64" s="2">
+      <c r="B64" s="1">
         <v>14.8112592697144</v>
       </c>
-      <c r="D64" s="2">
+      <c r="C64" s="1">
         <v>1753.19995117187</v>
       </c>
-      <c r="E64" s="2">
+      <c r="D64" s="1">
         <v>529.974426269531</v>
       </c>
-      <c r="F64" s="2">
+      <c r="E64" s="1">
         <v>930.279479980469</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="3">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2">
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
         <v>4.66859197616577</v>
       </c>
-      <c r="C65" s="2">
+      <c r="B65" s="1">
         <v>14.8322725296021</v>
       </c>
-      <c r="D65" s="2">
+      <c r="C65" s="1">
         <v>1738.59997558594</v>
       </c>
-      <c r="E65" s="2">
+      <c r="D65" s="1">
         <v>531.130432128906</v>
       </c>
-      <c r="F65" s="2">
+      <c r="E65" s="1">
         <v>936.753784179688</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="3">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2">
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
         <v>4.6703691482544</v>
       </c>
-      <c r="C66" s="2">
+      <c r="B66" s="1">
         <v>14.8509340286255</v>
       </c>
-      <c r="D66" s="2">
+      <c r="C66" s="1">
         <v>1738</v>
       </c>
-      <c r="E66" s="2">
+      <c r="D66" s="1">
         <v>531.793334960938</v>
       </c>
-      <c r="F66" s="2">
+      <c r="E66" s="1">
         <v>937.811828613281</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="3">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2">
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
         <v>4.67327928543091</v>
       </c>
-      <c r="C67" s="2">
+      <c r="B67" s="1">
         <v>14.8686771392822</v>
       </c>
-      <c r="D67" s="2">
+      <c r="C67" s="1">
         <v>1748.09997558594</v>
       </c>
-      <c r="E67" s="2">
+      <c r="D67" s="1">
         <v>532.583312988281</v>
       </c>
-      <c r="F67" s="2">
+      <c r="E67" s="1">
         <v>933.728515625</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="3">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
         <v>4.67707204818726</v>
       </c>
-      <c r="C68" s="2">
+      <c r="B68" s="1">
         <v>14.8963260650635</v>
       </c>
-      <c r="D68" s="2">
+      <c r="C68" s="1">
         <v>1743.59997558594</v>
       </c>
-      <c r="E68" s="2">
+      <c r="D68" s="1">
         <v>532.970825195313</v>
       </c>
-      <c r="F68" s="2">
+      <c r="E68" s="1">
         <v>936.195190429688</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="3">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2">
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
         <v>4.67673254013062</v>
       </c>
-      <c r="C69" s="2">
+      <c r="B69" s="1">
         <v>14.9028987884522</v>
       </c>
-      <c r="D69" s="2">
+      <c r="C69" s="1">
         <v>1739.59997558594</v>
       </c>
-      <c r="E69" s="2">
+      <c r="D69" s="1">
         <v>533.541015625</v>
       </c>
-      <c r="F69" s="2">
+      <c r="E69" s="1">
         <v>937.916687011719</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="3">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2">
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
         <v>4.68251514434815</v>
       </c>
-      <c r="C70" s="2">
+      <c r="B70" s="1">
         <v>14.9257564544678</v>
       </c>
-      <c r="D70" s="2">
+      <c r="C70" s="1">
         <v>1739.19995117187</v>
       </c>
-      <c r="E70" s="2">
+      <c r="D70" s="1">
         <v>532.546447753906</v>
       </c>
-      <c r="F70" s="2">
+      <c r="E70" s="1">
         <v>938.1533203125</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="3">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2">
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
         <v>4.68196773529053</v>
       </c>
-      <c r="C71" s="2">
+      <c r="B71" s="1">
         <v>14.9355897903442</v>
       </c>
-      <c r="D71" s="2">
+      <c r="C71" s="1">
         <v>1731.59997558594</v>
       </c>
-      <c r="E71" s="2">
+      <c r="D71" s="1">
         <v>532.185791015625</v>
       </c>
-      <c r="F71" s="2">
+      <c r="E71" s="1">
         <v>941.01025390625</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="3">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2">
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
         <v>4.68770694732666</v>
       </c>
-      <c r="C72" s="2">
+      <c r="B72" s="1">
         <v>14.96462059021</v>
       </c>
-      <c r="D72" s="2">
+      <c r="C72" s="1">
         <v>1745.80004882812</v>
       </c>
-      <c r="E72" s="2">
+      <c r="D72" s="1">
         <v>532.700744628906</v>
       </c>
-      <c r="F72" s="2">
+      <c r="E72" s="1">
         <v>935.844848632813</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="3">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2">
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
         <v>4.68935680389404</v>
       </c>
-      <c r="C73" s="2">
+      <c r="B73" s="1">
         <v>14.9730272293091</v>
       </c>
-      <c r="D73" s="2">
+      <c r="C73" s="1">
         <v>1751.19995117187</v>
       </c>
-      <c r="E73" s="2">
+      <c r="D73" s="1">
         <v>532.293762207031</v>
       </c>
-      <c r="F73" s="2">
+      <c r="E73" s="1">
         <v>933.768188476563</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="3">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2">
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
         <v>4.69574165344238</v>
       </c>
-      <c r="C74" s="2">
+      <c r="B74" s="1">
         <v>15.0013484954834</v>
       </c>
-      <c r="D74" s="2">
+      <c r="C74" s="1">
         <v>1747.5</v>
       </c>
-      <c r="E74" s="2">
+      <c r="D74" s="1">
         <v>532.650024414063</v>
       </c>
-      <c r="F74" s="2">
+      <c r="E74" s="1">
         <v>935.873901367188</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="3">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2">
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
         <v>4.69767093658447</v>
       </c>
-      <c r="C75" s="2">
+      <c r="B75" s="1">
         <v>15.0065507888794</v>
       </c>
-      <c r="D75" s="2">
+      <c r="C75" s="1">
         <v>1740.30004882812</v>
       </c>
-      <c r="E75" s="2">
+      <c r="D75" s="1">
         <v>531.917419433594</v>
       </c>
-      <c r="F75" s="2">
+      <c r="E75" s="1">
         <v>938.691711425781</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="3">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2">
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
         <v>4.70345401763916</v>
       </c>
-      <c r="C76" s="2">
+      <c r="B76" s="1">
         <v>15.025468826294</v>
       </c>
-      <c r="D76" s="2">
+      <c r="C76" s="1">
         <v>1745.30004882812</v>
       </c>
-      <c r="E76" s="2">
+      <c r="D76" s="1">
         <v>531.637756347656</v>
       </c>
-      <c r="F76" s="2">
+      <c r="E76" s="1">
         <v>936.532836914063</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="3">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2">
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
         <v>4.70282649993896</v>
       </c>
-      <c r="C77" s="2">
+      <c r="B77" s="1">
         <v>15.0243072509766</v>
       </c>
-      <c r="D77" s="2">
+      <c r="C77" s="1">
         <v>1753.30004882812</v>
       </c>
-      <c r="E77" s="2">
+      <c r="D77" s="1">
         <v>531.886352539063</v>
       </c>
-      <c r="F77" s="2">
+      <c r="E77" s="1">
         <v>934.023071289063</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="3">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2">
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
         <v>4.70696401596069</v>
       </c>
-      <c r="C78" s="2">
+      <c r="B78" s="1">
         <v>15.040246963501</v>
       </c>
-      <c r="D78" s="2">
+      <c r="C78" s="1">
         <v>1749.5</v>
       </c>
-      <c r="E78" s="2">
+      <c r="D78" s="1">
         <v>531.20849609375</v>
       </c>
-      <c r="F78" s="2">
+      <c r="E78" s="1">
         <v>935.896850585938</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="3">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2">
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
         <v>4.7103910446167</v>
       </c>
-      <c r="C79" s="2">
+      <c r="B79" s="1">
         <v>15.0475568771362</v>
       </c>
-      <c r="D79" s="2">
+      <c r="C79" s="1">
         <v>1756.80004882812</v>
       </c>
-      <c r="E79" s="2">
+      <c r="D79" s="1">
         <v>530.974731445313</v>
       </c>
-      <c r="F79" s="2">
+      <c r="E79" s="1">
         <v>932.957824707031</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="3">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2">
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
         <v>4.7161750793457</v>
       </c>
-      <c r="C80" s="2">
+      <c r="B80" s="1">
         <v>15.0645875930786</v>
       </c>
-      <c r="D80" s="2">
+      <c r="C80" s="1">
         <v>1757.40002441406</v>
       </c>
-      <c r="E80" s="2">
+      <c r="D80" s="1">
         <v>530.527526855469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="E80" s="1">
         <v>932.972290039063</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="3">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2">
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
         <v>4.71777486801147</v>
       </c>
-      <c r="C81" s="2">
+      <c r="B81" s="1">
         <v>15.065203666687</v>
       </c>
-      <c r="D81" s="2">
+      <c r="C81" s="1">
         <v>1760.19995117187</v>
       </c>
-      <c r="E81" s="2">
+      <c r="D81" s="1">
         <v>530.185180664063</v>
       </c>
-      <c r="F81" s="2">
+      <c r="E81" s="1">
         <v>931.933776855469</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="3">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2">
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
         <v>4.72371578216553</v>
       </c>
-      <c r="C82" s="2">
+      <c r="B82" s="1">
         <v>15.0798397064209</v>
       </c>
-      <c r="D82" s="2">
+      <c r="C82" s="1">
         <v>1768.19995117187</v>
       </c>
-      <c r="E82" s="2">
+      <c r="D82" s="1">
         <v>530.186157226563</v>
       </c>
-      <c r="F82" s="2">
+      <c r="E82" s="1">
         <v>929.538269042969</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="3">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2">
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
         <v>4.72464799880981</v>
       </c>
-      <c r="C83" s="2">
+      <c r="B83" s="1">
         <v>15.078465461731</v>
       </c>
-      <c r="D83" s="2">
+      <c r="C83" s="1">
         <v>1773.80004882812</v>
       </c>
-      <c r="E83" s="2">
+      <c r="D83" s="1">
         <v>529.339782714844</v>
       </c>
-      <c r="F83" s="2">
+      <c r="E83" s="1">
         <v>927.020629882813</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="3">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2">
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
         <v>4.72968435287476</v>
       </c>
-      <c r="C84" s="2">
+      <c r="B84" s="1">
         <v>15.0903778076172</v>
       </c>
-      <c r="D84" s="2">
+      <c r="C84" s="1">
         <v>1770.19995117187</v>
       </c>
-      <c r="E84" s="2">
+      <c r="D84" s="1">
         <v>528.431823730469</v>
       </c>
-      <c r="F84" s="2">
+      <c r="E84" s="1">
         <v>928.575805664063</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="3">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2">
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
         <v>4.73152256011963</v>
       </c>
-      <c r="C85" s="2">
+      <c r="B85" s="1">
         <v>15.0907163619995</v>
       </c>
-      <c r="D85" s="2">
+      <c r="C85" s="1">
         <v>1780.90002441406</v>
       </c>
-      <c r="E85" s="2">
+      <c r="D85" s="1">
         <v>527.760375976563</v>
       </c>
-      <c r="F85" s="2">
+      <c r="E85" s="1">
         <v>924.325317382813</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="3">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2">
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
         <v>4.73563146591187</v>
       </c>
-      <c r="C86" s="2">
+      <c r="B86" s="1">
         <v>15.0936374664307</v>
       </c>
-      <c r="D86" s="2">
+      <c r="C86" s="1">
         <v>1780.30004882812</v>
       </c>
-      <c r="E86" s="2">
+      <c r="D86" s="1">
         <v>527.979370117188</v>
       </c>
-      <c r="F86" s="2">
+      <c r="E86" s="1">
         <v>925.048156738281</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="3">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2">
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
         <v>4.73960733413696</v>
       </c>
-      <c r="C87" s="2">
+      <c r="B87" s="1">
         <v>15.096941947937</v>
       </c>
-      <c r="D87" s="2">
+      <c r="C87" s="1">
         <v>1773.30004882812</v>
       </c>
-      <c r="E87" s="2">
+      <c r="D87" s="1">
         <v>526.101379394531</v>
       </c>
-      <c r="F87" s="2">
+      <c r="E87" s="1">
         <v>927.338256835938</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="3">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2">
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
         <v>4.73946619033813</v>
       </c>
-      <c r="C88" s="2">
+      <c r="B88" s="1">
         <v>15.0913639068603</v>
       </c>
-      <c r="D88" s="2">
+      <c r="C88" s="1">
         <v>1794.59997558594</v>
       </c>
-      <c r="E88" s="2">
+      <c r="D88" s="1">
         <v>525.421020507813</v>
       </c>
-      <c r="F88" s="2">
+      <c r="E88" s="1">
         <v>918.453491210938</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="3">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2">
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
         <v>4.74314165115356</v>
       </c>
-      <c r="C89" s="2">
+      <c r="B89" s="1">
         <v>15.0922374725342</v>
       </c>
-      <c r="D89" s="2">
+      <c r="C89" s="1">
         <v>1802.40002441406</v>
       </c>
-      <c r="E89" s="2">
+      <c r="D89" s="1">
         <v>525.253295898438</v>
       </c>
-      <c r="F89" s="2">
+      <c r="E89" s="1">
         <v>914.839721679688</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="3">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2">
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
         <v>4.74540185928345</v>
       </c>
-      <c r="C90" s="2">
+      <c r="B90" s="1">
         <v>15.0844087600708</v>
       </c>
-      <c r="D90" s="2">
+      <c r="C90" s="1">
         <v>1791.09997558594</v>
       </c>
-      <c r="E90" s="2">
+      <c r="D90" s="1">
         <v>524.531066894531</v>
       </c>
-      <c r="F90" s="2">
+      <c r="E90" s="1">
         <v>919.855834960938</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="3">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2">
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
         <v>4.74851322174072</v>
       </c>
-      <c r="C91" s="2">
+      <c r="B91" s="1">
         <v>15.0730714797974</v>
       </c>
-      <c r="D91" s="2">
+      <c r="C91" s="1">
         <v>1797.30004882812</v>
       </c>
-      <c r="E91" s="2">
+      <c r="D91" s="1">
         <v>523.426879882813</v>
       </c>
-      <c r="F91" s="2">
+      <c r="E91" s="1">
         <v>916.999206542969</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="3">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2">
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
         <v>4.74341106414795</v>
       </c>
-      <c r="C92" s="2">
+      <c r="B92" s="1">
         <v>15.0266618728638</v>
       </c>
-      <c r="D92" s="2">
+      <c r="C92" s="1">
         <v>1808.90002441406</v>
       </c>
-      <c r="E92" s="2">
+      <c r="D92" s="1">
         <v>522.376586914063</v>
       </c>
-      <c r="F92" s="2">
+      <c r="E92" s="1">
         <v>911.650512695313</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="3">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2">
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
         <v>4.74433898925781</v>
       </c>
-      <c r="C93" s="2">
+      <c r="B93" s="1">
         <v>15.0026111602783</v>
       </c>
-      <c r="D93" s="2">
+      <c r="C93" s="1">
         <v>1814.19995117187</v>
       </c>
-      <c r="E93" s="2">
+      <c r="D93" s="1">
         <v>521.602416992188</v>
       </c>
-      <c r="F93" s="2">
+      <c r="E93" s="1">
         <v>908.967407226563</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="3">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2">
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
         <v>4.7458324432373</v>
       </c>
-      <c r="C94" s="2">
+      <c r="B94" s="1">
         <v>14.9819746017456</v>
       </c>
-      <c r="D94" s="2">
+      <c r="C94" s="1">
         <v>1805.30004882812</v>
       </c>
-      <c r="E94" s="2">
+      <c r="D94" s="1">
         <v>520.733337402344</v>
       </c>
-      <c r="F94" s="2">
+      <c r="E94" s="1">
         <v>912.674499511719</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="3">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2">
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
         <v>4.74319744110107</v>
       </c>
-      <c r="C95" s="2">
+      <c r="B95" s="1">
         <v>14.9488039016724</v>
       </c>
-      <c r="D95" s="2">
+      <c r="C95" s="1">
         <v>1802.90002441406</v>
       </c>
-      <c r="E95" s="2">
+      <c r="D95" s="1">
         <v>519.669982910156</v>
       </c>
-      <c r="F95" s="2">
+      <c r="E95" s="1">
         <v>913.532531738281</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="3">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2">
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
         <v>4.73886203765869</v>
       </c>
-      <c r="C96" s="2">
+      <c r="B96" s="1">
         <v>14.9262495040894</v>
       </c>
-      <c r="D96" s="2">
+      <c r="C96" s="1">
         <v>1815.30004882812</v>
       </c>
-      <c r="E96" s="2">
+      <c r="D96" s="1">
         <v>519.135131835938</v>
       </c>
-      <c r="F96" s="2">
+      <c r="E96" s="1">
         <v>908.140930175781</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="3">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2">
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
         <v>4.74059867858887</v>
       </c>
-      <c r="C97" s="2">
+      <c r="B97" s="1">
         <v>14.9189558029175</v>
       </c>
-      <c r="D97" s="2">
+      <c r="C97" s="1">
         <v>1816.59997558594</v>
       </c>
-      <c r="E97" s="2">
+      <c r="D97" s="1">
         <v>518.512634277344</v>
       </c>
-      <c r="F97" s="2">
+      <c r="E97" s="1">
         <v>907.192077636719</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="3">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2">
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
         <v>4.73431730270386</v>
       </c>
-      <c r="C98" s="2">
+      <c r="B98" s="1">
         <v>14.8905563354492</v>
       </c>
-      <c r="D98" s="2">
+      <c r="C98" s="1">
         <v>1816.69995117187</v>
       </c>
-      <c r="E98" s="2">
+      <c r="D98" s="1">
         <v>518.40576171875</v>
       </c>
-      <c r="F98" s="2">
+      <c r="E98" s="1">
         <v>907.02587890625</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="3">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2">
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
         <v>4.73332500457764</v>
       </c>
-      <c r="C99" s="2">
+      <c r="B99" s="1">
         <v>14.8766145706177</v>
       </c>
-      <c r="D99" s="2">
+      <c r="C99" s="1">
         <v>1817.09997558594</v>
       </c>
-      <c r="E99" s="2">
+      <c r="D99" s="1">
         <v>517.567749023438</v>
       </c>
-      <c r="F99" s="2">
+      <c r="E99" s="1">
         <v>907.144165039063</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="3">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2">
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
         <v>4.73622798919678</v>
       </c>
-      <c r="C100" s="2">
+      <c r="B100" s="1">
         <v>14.8862810134888</v>
       </c>
-      <c r="D100" s="2">
+      <c r="C100" s="1">
         <v>1825</v>
       </c>
-      <c r="E100" s="2">
+      <c r="D100" s="1">
         <v>516.899963378906</v>
       </c>
-      <c r="F100" s="2">
+      <c r="E100" s="1">
         <v>903.668823242188</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="3">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2">
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
         <v>4.73928880691528</v>
       </c>
-      <c r="C101" s="2">
+      <c r="B101" s="1">
         <v>14.8967227935791</v>
       </c>
-      <c r="D101" s="2">
+      <c r="C101" s="1">
         <v>1828.19995117187</v>
       </c>
-      <c r="E101" s="2">
+      <c r="D101" s="1">
         <v>516.275695800781</v>
       </c>
-      <c r="F101" s="2">
+      <c r="E101" s="1">
         <v>902.036499023438</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="3">
-        <v>100</v>
-      </c>
-      <c r="B102" s="2">
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
         <v>4.73591756820679</v>
       </c>
-      <c r="C102" s="2">
+      <c r="B102" s="1">
         <v>14.886022567749</v>
       </c>
-      <c r="D102" s="2">
+      <c r="C102" s="1">
         <v>1824.5</v>
       </c>
-      <c r="E102" s="2">
+      <c r="D102" s="1">
         <v>516.479064941406</v>
       </c>
-      <c r="F102" s="2">
+      <c r="E102" s="1">
         <v>903.99755859375</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="3">
-        <v>101</v>
-      </c>
-      <c r="B103" s="2">
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
         <v>4.73409366607666</v>
       </c>
-      <c r="C103" s="2">
+      <c r="B103" s="1">
         <v>14.8821840286255</v>
       </c>
-      <c r="D103" s="2">
+      <c r="C103" s="1">
         <v>1820.59997558594</v>
       </c>
-      <c r="E103" s="2">
+      <c r="D103" s="1">
         <v>515.275146484375</v>
       </c>
-      <c r="F103" s="2">
+      <c r="E103" s="1">
         <v>905.291381835938</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="3">
-        <v>102</v>
-      </c>
-      <c r="B104" s="2">
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
         <v>4.73550415039062</v>
       </c>
-      <c r="C104" s="2">
+      <c r="B104" s="1">
         <v>14.8895816802978</v>
       </c>
-      <c r="D104" s="2">
+      <c r="C104" s="1">
         <v>1829.59997558594</v>
       </c>
-      <c r="E104" s="2">
+      <c r="D104" s="1">
         <v>514.792907714844</v>
       </c>
-      <c r="F104" s="2">
+      <c r="E104" s="1">
         <v>901.183959960938</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="3">
-        <v>103</v>
-      </c>
-      <c r="B105" s="2">
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
         <v>4.7386589050293</v>
       </c>
-      <c r="C105" s="2">
+      <c r="B105" s="1">
         <v>14.9079532623291</v>
       </c>
-      <c r="D105" s="2">
+      <c r="C105" s="1">
         <v>1831.69995117187</v>
       </c>
-      <c r="E105" s="2">
+      <c r="D105" s="1">
         <v>514.510864257813</v>
       </c>
-      <c r="F105" s="2">
+      <c r="E105" s="1">
         <v>900.393188476563</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="3">
-        <v>104</v>
-      </c>
-      <c r="B106" s="2">
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
         <v>4.74440813064575</v>
       </c>
-      <c r="C106" s="2">
+      <c r="B106" s="1">
         <v>14.9297866821289</v>
       </c>
-      <c r="D106" s="2">
+      <c r="C106" s="1">
         <v>1831.80004882812</v>
       </c>
-      <c r="E106" s="2">
+      <c r="D106" s="1">
         <v>515.170776367188</v>
       </c>
-      <c r="F106" s="2">
+      <c r="E106" s="1">
         <v>900.928039550781</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="3">
-        <v>105</v>
-      </c>
-      <c r="B107" s="2">
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
         <v>4.74112272262573</v>
       </c>
-      <c r="C107" s="2">
+      <c r="B107" s="1">
         <v>14.9197950363159</v>
       </c>
-      <c r="D107" s="2">
+      <c r="C107" s="1">
         <v>1832.90002441406</v>
       </c>
-      <c r="E107" s="2">
+      <c r="D107" s="1">
         <v>514.660705566406</v>
       </c>
-      <c r="F107" s="2">
+      <c r="E107" s="1">
         <v>900.272827148438</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="3">
-        <v>106</v>
-      </c>
-      <c r="B108" s="2">
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
         <v>4.74300050735474</v>
       </c>
-      <c r="C108" s="2">
+      <c r="B108" s="1">
         <v>14.9333925247192</v>
       </c>
-      <c r="D108" s="2">
+      <c r="C108" s="1">
         <v>1834.90002441406</v>
       </c>
-      <c r="E108" s="2">
+      <c r="D108" s="1">
         <v>514.404174804688</v>
       </c>
-      <c r="F108" s="2">
+      <c r="E108" s="1">
         <v>899.541137695313</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="3">
-        <v>107</v>
-      </c>
-      <c r="B109" s="2">
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
         <v>4.74590826034546</v>
       </c>
-      <c r="C109" s="2">
+      <c r="B109" s="1">
         <v>14.9453525543213</v>
       </c>
-      <c r="D109" s="2">
+      <c r="C109" s="1">
         <v>1833.80004882812</v>
       </c>
-      <c r="E109" s="2">
+      <c r="D109" s="1">
         <v>513.946411132813</v>
       </c>
-      <c r="F109" s="2">
+      <c r="E109" s="1">
         <v>899.974426269531</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="3">
-        <v>108</v>
-      </c>
-      <c r="B110" s="2">
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
         <v>4.74997615814209</v>
       </c>
-      <c r="C110" s="2">
+      <c r="B110" s="1">
         <v>14.9668254852295</v>
       </c>
-      <c r="D110" s="2">
+      <c r="C110" s="1">
         <v>1826.69995117187</v>
       </c>
-      <c r="E110" s="2">
+      <c r="D110" s="1">
         <v>513.931518554688</v>
       </c>
-      <c r="F110" s="2">
+      <c r="E110" s="1">
         <v>902.807983398438</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="3">
-        <v>109</v>
-      </c>
-      <c r="B111" s="2">
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
         <v>4.75070762634277</v>
       </c>
-      <c r="C111" s="2">
+      <c r="B111" s="1">
         <v>14.9725542068481</v>
       </c>
-      <c r="D111" s="2">
+      <c r="C111" s="1">
         <v>1837.40002441406</v>
       </c>
-      <c r="E111" s="2">
+      <c r="D111" s="1">
         <v>513.594116210938</v>
       </c>
-      <c r="F111" s="2">
+      <c r="E111" s="1">
         <v>897.828247070313</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="3">
-        <v>110</v>
-      </c>
-      <c r="B112" s="2">
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
         <v>4.75173568725586</v>
       </c>
-      <c r="C112" s="2">
+      <c r="B112" s="1">
         <v>14.97607421875</v>
       </c>
-      <c r="D112" s="2">
+      <c r="C112" s="1">
         <v>1835</v>
       </c>
-      <c r="E112" s="2">
+      <c r="D112" s="1">
         <v>513.511047363281</v>
       </c>
-      <c r="F112" s="2">
+      <c r="E112" s="1">
         <v>899.148742675781</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="3">
-        <v>111</v>
-      </c>
-      <c r="B113" s="2">
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
         <v>4.75494146347046</v>
       </c>
-      <c r="C113" s="2">
+      <c r="B113" s="1">
         <v>14.9906158447266</v>
       </c>
-      <c r="D113" s="2">
+      <c r="C113" s="1">
         <v>1834.59997558594</v>
       </c>
-      <c r="E113" s="2">
+      <c r="D113" s="1">
         <v>513.609985351563</v>
       </c>
-      <c r="F113" s="2">
+      <c r="E113" s="1">
         <v>899.21337890625</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="3">
-        <v>112</v>
-      </c>
-      <c r="B114" s="2">
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
         <v>4.75802087783813</v>
       </c>
-      <c r="C114" s="2">
+      <c r="B114" s="1">
         <v>15.001841545105</v>
       </c>
-      <c r="D114" s="2">
+      <c r="C114" s="1">
         <v>1830.09997558594</v>
       </c>
-      <c r="E114" s="2">
+      <c r="D114" s="1">
         <v>513.614868164063</v>
       </c>
-      <c r="F114" s="2">
+      <c r="E114" s="1">
         <v>901.421569824219</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="3">
-        <v>113</v>
-      </c>
-      <c r="B115" s="2">
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
         <v>4.75797748565674</v>
       </c>
-      <c r="C115" s="2">
+      <c r="B115" s="1">
         <v>15.0090970993042</v>
       </c>
-      <c r="D115" s="2">
+      <c r="C115" s="1">
         <v>1837</v>
       </c>
-      <c r="E115" s="2">
+      <c r="D115" s="1">
         <v>513.34228515625</v>
       </c>
-      <c r="F115" s="2">
+      <c r="E115" s="1">
         <v>898.382995605469</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="3">
-        <v>114</v>
-      </c>
-      <c r="B116" s="2">
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
         <v>4.76304531097412</v>
       </c>
-      <c r="C116" s="2">
+      <c r="B116" s="1">
         <v>15.024055480957</v>
       </c>
-      <c r="D116" s="2">
+      <c r="C116" s="1">
         <v>1838.09997558594</v>
       </c>
-      <c r="E116" s="2">
+      <c r="D116" s="1">
         <v>513.157531738281</v>
       </c>
-      <c r="F116" s="2">
+      <c r="E116" s="1">
         <v>897.62060546875</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="3">
-        <v>115</v>
-      </c>
-      <c r="B117" s="2">
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
         <v>4.76722955703735</v>
       </c>
-      <c r="C117" s="2">
+      <c r="B117" s="1">
         <v>15.0407056808472</v>
       </c>
-      <c r="D117" s="2">
+      <c r="C117" s="1">
         <v>1834.30004882812</v>
       </c>
-      <c r="E117" s="2">
+      <c r="D117" s="1">
         <v>513.703308105469</v>
       </c>
-      <c r="F117" s="2">
+      <c r="E117" s="1">
         <v>899.518737792969</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="3">
-        <v>116</v>
-      </c>
-      <c r="B118" s="2">
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
         <v>4.77212238311768</v>
       </c>
-      <c r="C118" s="2">
+      <c r="B118" s="1">
         <v>15.0619735717773</v>
       </c>
-      <c r="D118" s="2">
+      <c r="C118" s="1">
         <v>1841.90002441406</v>
       </c>
-      <c r="E118" s="2">
+      <c r="D118" s="1">
         <v>513.503662109375</v>
       </c>
-      <c r="F118" s="2">
+      <c r="E118" s="1">
         <v>895.952453613281</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="3">
-        <v>117</v>
-      </c>
-      <c r="B119" s="2">
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
         <v>4.7719612121582</v>
       </c>
-      <c r="C119" s="2">
+      <c r="B119" s="1">
         <v>15.0610485076904</v>
       </c>
-      <c r="D119" s="2">
+      <c r="C119" s="1">
         <v>1827.59997558594</v>
       </c>
-      <c r="E119" s="2">
+      <c r="D119" s="1">
         <v>513.939575195313</v>
       </c>
-      <c r="F119" s="2">
+      <c r="E119" s="1">
         <v>902.001831054688</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="3">
-        <v>118</v>
-      </c>
-      <c r="B120" s="2">
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
         <v>4.77149724960327</v>
       </c>
-      <c r="C120" s="2">
+      <c r="B120" s="1">
         <v>15.0607633590698</v>
       </c>
-      <c r="D120" s="2">
+      <c r="C120" s="1">
         <v>1834.40002441406</v>
       </c>
-      <c r="E120" s="2">
+      <c r="D120" s="1">
         <v>514.385681152344</v>
       </c>
-      <c r="F120" s="2">
+      <c r="E120" s="1">
         <v>899.494323730469</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="3">
-        <v>119</v>
-      </c>
-      <c r="B121" s="2">
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
         <v>4.77802610397339</v>
       </c>
-      <c r="C121" s="2">
+      <c r="B121" s="1">
         <v>15.0848598480225</v>
       </c>
-      <c r="D121" s="2">
+      <c r="C121" s="1">
         <v>1825.69995117187</v>
       </c>
-      <c r="E121" s="2">
+      <c r="D121" s="1">
         <v>514.903076171875</v>
       </c>
-      <c r="F121" s="2">
+      <c r="E121" s="1">
         <v>903.14794921875</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="3">
-        <v>120</v>
-      </c>
-      <c r="B122" s="2">
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
         <v>4.77735805511475</v>
       </c>
-      <c r="C122" s="2">
+      <c r="B122" s="1">
         <v>15.0792102813721</v>
       </c>
-      <c r="D122" s="2">
+      <c r="C122" s="1">
         <v>1828.69995117187</v>
       </c>
-      <c r="E122" s="2">
+      <c r="D122" s="1">
         <v>515.454895019531</v>
       </c>
-      <c r="F122" s="2">
+      <c r="E122" s="1">
         <v>902.156860351563</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="3">
-        <v>121</v>
-      </c>
-      <c r="B123" s="2">
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
         <v>4.77945804595947</v>
       </c>
-      <c r="C123" s="2">
+      <c r="B123" s="1">
         <v>15.0915861129761</v>
       </c>
-      <c r="D123" s="2">
+      <c r="C123" s="1">
         <v>1826.59997558594</v>
       </c>
-      <c r="E123" s="2">
+      <c r="D123" s="1">
         <v>515.80029296875</v>
       </c>
-      <c r="F123" s="2">
+      <c r="E123" s="1">
         <v>903.111206054688</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="3">
-        <v>122</v>
-      </c>
-      <c r="B124" s="2">
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
         <v>4.78108596801758</v>
       </c>
-      <c r="C124" s="2">
+      <c r="B124" s="1">
         <v>15.0960369110107</v>
       </c>
-      <c r="D124" s="2">
+      <c r="C124" s="1">
         <v>1818.5</v>
       </c>
-      <c r="E124" s="2">
+      <c r="D124" s="1">
         <v>516.327697753906</v>
       </c>
-      <c r="F124" s="2">
+      <c r="E124" s="1">
         <v>906.718383789063</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="3">
-        <v>123</v>
-      </c>
-      <c r="B125" s="2">
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
         <v>4.78396797180176</v>
       </c>
-      <c r="C125" s="2">
+      <c r="B125" s="1">
         <v>15.1031980514526</v>
       </c>
-      <c r="D125" s="2">
+      <c r="C125" s="1">
         <v>1822.90002441406</v>
       </c>
-      <c r="E125" s="2">
+      <c r="D125" s="1">
         <v>517.43603515625</v>
       </c>
-      <c r="F125" s="2">
+      <c r="E125" s="1">
         <v>905.256042480469</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="3">
-        <v>124</v>
-      </c>
-      <c r="B126" s="2">
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
         <v>4.79010200500488</v>
       </c>
-      <c r="C126" s="2">
+      <c r="B126" s="1">
         <v>15.1234912872315</v>
       </c>
-      <c r="D126" s="2">
+      <c r="C126" s="1">
         <v>1823.40002441406</v>
       </c>
-      <c r="E126" s="2">
+      <c r="D126" s="1">
         <v>517.529174804688</v>
       </c>
-      <c r="F126" s="2">
+      <c r="E126" s="1">
         <v>905.014770507813</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="3">
-        <v>125</v>
-      </c>
-      <c r="B127" s="2">
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
         <v>4.7906322479248</v>
       </c>
-      <c r="C127" s="2">
+      <c r="B127" s="1">
         <v>15.1290864944458</v>
       </c>
-      <c r="D127" s="2">
+      <c r="C127" s="1">
         <v>1815.69995117187</v>
       </c>
-      <c r="E127" s="2">
+      <c r="D127" s="1">
         <v>517.600036621094</v>
       </c>
-      <c r="F127" s="2">
+      <c r="E127" s="1">
         <v>908.346069335938</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="3">
-        <v>126</v>
-      </c>
-      <c r="B128" s="2">
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
         <v>4.79368162155151</v>
       </c>
-      <c r="C128" s="2">
+      <c r="B128" s="1">
         <v>15.1361417770386</v>
       </c>
-      <c r="D128" s="2">
+      <c r="C128" s="1">
         <v>1816.19995117187</v>
       </c>
-      <c r="E128" s="2">
+      <c r="D128" s="1">
         <v>518.281311035156</v>
       </c>
-      <c r="F128" s="2">
+      <c r="E128" s="1">
         <v>908.205932617188</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="3">
-        <v>127</v>
-      </c>
-      <c r="B129" s="2">
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
         <v>4.79369258880615</v>
       </c>
-      <c r="C129" s="2">
+      <c r="B129" s="1">
         <v>15.1418046951294</v>
       </c>
-      <c r="D129" s="2">
+      <c r="C129" s="1">
         <v>1812.30004882812</v>
       </c>
-      <c r="E129" s="2">
+      <c r="D129" s="1">
         <v>518.767761230469</v>
       </c>
-      <c r="F129" s="2">
+      <c r="E129" s="1">
         <v>909.998657226563</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="3">
-        <v>128</v>
-      </c>
-      <c r="B130" s="2">
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
         <v>4.79266834259033</v>
       </c>
-      <c r="C130" s="2">
+      <c r="B130" s="1">
         <v>15.1354475021362</v>
       </c>
-      <c r="D130" s="2">
+      <c r="C130" s="1">
         <v>1820.69995117187</v>
       </c>
-      <c r="E130" s="2">
+      <c r="D130" s="1">
         <v>519.120239257813</v>
       </c>
-      <c r="F130" s="2">
+      <c r="E130" s="1">
         <v>906.588745117188</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="3">
-        <v>129</v>
-      </c>
-      <c r="B131" s="2">
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
         <v>4.79927062988281</v>
       </c>
-      <c r="C131" s="2">
+      <c r="B131" s="1">
         <v>15.1596603393555</v>
       </c>
-      <c r="D131" s="2">
+      <c r="C131" s="1">
         <v>1813.90002441406</v>
       </c>
-      <c r="E131" s="2">
+      <c r="D131" s="1">
         <v>519.77099609375</v>
       </c>
-      <c r="F131" s="2">
+      <c r="E131" s="1">
         <v>909.307006835938</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="3">
-        <v>130</v>
-      </c>
-      <c r="B132" s="2">
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
         <v>4.80099678039551</v>
       </c>
-      <c r="C132" s="2">
+      <c r="B132" s="1">
         <v>15.1665115356445</v>
       </c>
-      <c r="D132" s="2">
+      <c r="C132" s="1">
         <v>1817.59997558594</v>
       </c>
-      <c r="E132" s="2">
+      <c r="D132" s="1">
         <v>520.320068359375</v>
       </c>
-      <c r="F132" s="2">
+      <c r="E132" s="1">
         <v>907.8623046875</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="3">
-        <v>131</v>
-      </c>
-      <c r="B133" s="2">
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
         <v>4.80153560638428</v>
       </c>
-      <c r="C133" s="2">
+      <c r="B133" s="1">
         <v>15.1678743362427</v>
       </c>
-      <c r="D133" s="2">
+      <c r="C133" s="1">
         <v>1807.40002441406</v>
       </c>
-      <c r="E133" s="2">
+      <c r="D133" s="1">
         <v>520.360168457031</v>
       </c>
-      <c r="F133" s="2">
+      <c r="E133" s="1">
         <v>911.915893554688</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="3">
-        <v>132</v>
-      </c>
-      <c r="B134" s="2">
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
         <v>4.80347490310669</v>
       </c>
-      <c r="C134" s="2">
+      <c r="B134" s="1">
         <v>15.1747331619263</v>
       </c>
-      <c r="D134" s="2">
+      <c r="C134" s="1">
         <v>1810.19995117187</v>
       </c>
-      <c r="E134" s="2">
+      <c r="D134" s="1">
         <v>520.908569335938</v>
       </c>
-      <c r="F134" s="2">
+      <c r="E134" s="1">
         <v>911.011108398438</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="3">
-        <v>133</v>
-      </c>
-      <c r="B135" s="2">
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
         <v>4.80493354797363</v>
       </c>
-      <c r="C135" s="2">
+      <c r="B135" s="1">
         <v>15.1802463531494</v>
       </c>
-      <c r="D135" s="2">
+      <c r="C135" s="1">
         <v>1809.69995117187</v>
       </c>
-      <c r="E135" s="2">
+      <c r="D135" s="1">
         <v>521.502319335938</v>
       </c>
-      <c r="F135" s="2">
+      <c r="E135" s="1">
         <v>911.147766113281</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="3">
-        <v>134</v>
-      </c>
-      <c r="B136" s="2">
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
         <v>4.80871105194092</v>
       </c>
-      <c r="C136" s="2">
+      <c r="B136" s="1">
         <v>15.1944551467896</v>
       </c>
-      <c r="D136" s="2">
+      <c r="C136" s="1">
         <v>1796.59997558594</v>
       </c>
-      <c r="E136" s="2">
+      <c r="D136" s="1">
         <v>521.854797363281</v>
       </c>
-      <c r="F136" s="2">
+      <c r="E136" s="1">
         <v>916.568542480469</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="3">
-        <v>135</v>
-      </c>
-      <c r="B137" s="2">
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
         <v>4.80869960784912</v>
       </c>
-      <c r="C137" s="2">
+      <c r="B137" s="1">
         <v>15.1898603439331</v>
       </c>
-      <c r="D137" s="2">
+      <c r="C137" s="1">
         <v>1800</v>
       </c>
-      <c r="E137" s="2">
+      <c r="D137" s="1">
         <v>522.461669921875</v>
       </c>
-      <c r="F137" s="2">
+      <c r="E137" s="1">
         <v>915.113159179688</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="3">
-        <v>136</v>
-      </c>
-      <c r="B138" s="2">
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
         <v>4.81081771850586</v>
       </c>
-      <c r="C138" s="2">
+      <c r="B138" s="1">
         <v>15.1941967010498</v>
       </c>
-      <c r="D138" s="2">
+      <c r="C138" s="1">
         <v>1800.09997558594</v>
       </c>
-      <c r="E138" s="2">
+      <c r="D138" s="1">
         <v>522.5771484375</v>
       </c>
-      <c r="F138" s="2">
+      <c r="E138" s="1">
         <v>914.917602539063</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="3">
-        <v>137</v>
-      </c>
-      <c r="B139" s="2">
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
         <v>4.8139796257019</v>
       </c>
-      <c r="C139" s="2">
+      <c r="B139" s="1">
         <v>15.2027559280396</v>
       </c>
-      <c r="D139" s="2">
+      <c r="C139" s="1">
         <v>1788.09997558594</v>
       </c>
-      <c r="E139" s="2">
+      <c r="D139" s="1">
         <v>522.576599121094</v>
       </c>
-      <c r="F139" s="2">
+      <c r="E139" s="1">
         <v>919.951293945313</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="3">
-        <v>138</v>
-      </c>
-      <c r="B140" s="2">
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
         <v>4.81439685821533</v>
       </c>
-      <c r="C140" s="2">
+      <c r="B140" s="1">
         <v>15.2036609649658</v>
       </c>
-      <c r="D140" s="2">
+      <c r="C140" s="1">
         <v>1775.19995117187</v>
       </c>
-      <c r="E140" s="2">
+      <c r="D140" s="1">
         <v>522.853149414063</v>
       </c>
-      <c r="F140" s="2">
+      <c r="E140" s="1">
         <v>925.16650390625</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="3">
-        <v>139</v>
-      </c>
-      <c r="B141" s="2">
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
         <v>4.81609725952148</v>
       </c>
-      <c r="C141" s="2">
+      <c r="B141" s="1">
         <v>15.2080669403076</v>
       </c>
-      <c r="D141" s="2">
+      <c r="C141" s="1">
         <v>1794.40002441406</v>
       </c>
-      <c r="E141" s="2">
+      <c r="D141" s="1">
         <v>523.07470703125</v>
       </c>
-      <c r="F141" s="2">
+      <c r="E141" s="1">
         <v>916.980590820313</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="3">
-        <v>140</v>
-      </c>
-      <c r="B142" s="2">
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
         <v>4.81552648544312</v>
       </c>
-      <c r="C142" s="2">
+      <c r="B142" s="1">
         <v>15.2084789276123</v>
       </c>
-      <c r="D142" s="2">
+      <c r="C142" s="1">
         <v>1781</v>
       </c>
-      <c r="E142" s="2">
+      <c r="D142" s="1">
         <v>523.759948730469</v>
       </c>
-      <c r="F142" s="2">
+      <c r="E142" s="1">
         <v>922.55810546875</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="3">
-        <v>141</v>
-      </c>
-      <c r="B143" s="2">
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
         <v>4.81629514694214</v>
       </c>
-      <c r="C143" s="2">
+      <c r="B143" s="1">
         <v>15.2120151519775</v>
       </c>
-      <c r="D143" s="2">
+      <c r="C143" s="1">
         <v>1778.59997558594</v>
       </c>
-      <c r="E143" s="2">
+      <c r="D143" s="1">
         <v>523.93310546875</v>
       </c>
-      <c r="F143" s="2">
+      <c r="E143" s="1">
         <v>923.557495117188</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="3">
-        <v>142</v>
-      </c>
-      <c r="B144" s="2">
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
         <v>4.81551027297974</v>
       </c>
-      <c r="C144" s="2">
+      <c r="B144" s="1">
         <v>15.2042284011841</v>
       </c>
-      <c r="D144" s="2">
+      <c r="C144" s="1">
         <v>1776.59997558594</v>
       </c>
-      <c r="E144" s="2">
+      <c r="D144" s="1">
         <v>524.105224609375</v>
       </c>
-      <c r="F144" s="2">
+      <c r="E144" s="1">
         <v>923.990417480469</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="3">
-        <v>143</v>
-      </c>
-      <c r="B145" s="2">
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
         <v>4.81606006622315</v>
       </c>
-      <c r="C145" s="2">
+      <c r="B145" s="1">
         <v>15.2118835449219</v>
       </c>
-      <c r="D145" s="2">
+      <c r="C145" s="1">
         <v>1767.40002441406</v>
       </c>
-      <c r="E145" s="2">
+      <c r="D145" s="1">
         <v>524.060363769531</v>
       </c>
-      <c r="F145" s="2">
+      <c r="E145" s="1">
         <v>927.629516601563</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="3">
-        <v>144</v>
-      </c>
-      <c r="B146" s="2">
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
         <v>4.82327365875244</v>
       </c>
-      <c r="C146" s="2">
+      <c r="B146" s="1">
         <v>15.2409543991089</v>
       </c>
-      <c r="D146" s="2">
+      <c r="C146" s="1">
         <v>1778.80004882812</v>
       </c>
-      <c r="E146" s="2">
+      <c r="D146" s="1">
         <v>524.671691894531</v>
       </c>
-      <c r="F146" s="2">
+      <c r="E146" s="1">
         <v>923.136596679688</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="3">
-        <v>145</v>
-      </c>
-      <c r="B147" s="2">
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
         <v>4.82137584686279</v>
       </c>
-      <c r="C147" s="2">
+      <c r="B147" s="1">
         <v>15.2354984283447</v>
       </c>
-      <c r="D147" s="2">
+      <c r="C147" s="1">
         <v>1775.19995117187</v>
       </c>
-      <c r="E147" s="2">
+      <c r="D147" s="1">
         <v>524.893920898438</v>
       </c>
-      <c r="F147" s="2">
+      <c r="E147" s="1">
         <v>924.451843261719</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="3">
-        <v>146</v>
-      </c>
-      <c r="B148" s="2">
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
         <v>4.82330989837646</v>
       </c>
-      <c r="C148" s="2">
+      <c r="B148" s="1">
         <v>15.2396488189697</v>
       </c>
-      <c r="D148" s="2">
+      <c r="C148" s="1">
         <v>1775.90002441406</v>
       </c>
-      <c r="E148" s="2">
+      <c r="D148" s="1">
         <v>524.505676269531</v>
       </c>
-      <c r="F148" s="2">
+      <c r="E148" s="1">
         <v>923.862976074219</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="3">
-        <v>147</v>
-      </c>
-      <c r="B149" s="2">
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
         <v>4.82114553451538</v>
       </c>
-      <c r="C149" s="2">
+      <c r="B149" s="1">
         <v>15.2363815307617</v>
       </c>
-      <c r="D149" s="2">
+      <c r="C149" s="1">
         <v>1772.40002441406</v>
       </c>
-      <c r="E149" s="2">
+      <c r="D149" s="1">
         <v>525.374938964844</v>
       </c>
-      <c r="F149" s="2">
+      <c r="E149" s="1">
         <v>925.76953125</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="3">
-        <v>148</v>
-      </c>
-      <c r="B150" s="2">
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
         <v>4.82179164886475</v>
       </c>
-      <c r="C150" s="2">
+      <c r="B150" s="1">
         <v>15.2441387176514</v>
       </c>
-      <c r="D150" s="2">
+      <c r="C150" s="1">
         <v>1766.90002441406</v>
       </c>
-      <c r="E150" s="2">
+      <c r="D150" s="1">
         <v>525.614135742188</v>
       </c>
-      <c r="F150" s="2">
+      <c r="E150" s="1">
         <v>928.103820800781</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="3">
-        <v>149</v>
-      </c>
-      <c r="B151" s="2">
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
         <v>4.82595729827881</v>
       </c>
-      <c r="C151" s="2">
+      <c r="B151" s="1">
         <v>15.2601776123047</v>
       </c>
-      <c r="D151" s="2">
+      <c r="C151" s="1">
         <v>1765.09997558594</v>
       </c>
-      <c r="E151" s="2">
+      <c r="D151" s="1">
         <v>525.714233398438</v>
       </c>
-      <c r="F151" s="2">
+      <c r="E151" s="1">
         <v>928.853210449219</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="3">
-        <v>150</v>
-      </c>
-      <c r="B152" s="2">
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
         <v>4.82361650466919</v>
       </c>
-      <c r="C152" s="2">
+      <c r="B152" s="1">
         <v>15.2547855377197</v>
       </c>
-      <c r="D152" s="2">
+      <c r="C152" s="1">
         <v>1768.69995117187</v>
       </c>
-      <c r="E152" s="2">
+      <c r="D152" s="1">
         <v>526.614868164063</v>
       </c>
-      <c r="F152" s="2">
+      <c r="E152" s="1">
         <v>927.573364257813</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="3">
-        <v>151</v>
-      </c>
-      <c r="B153" s="2">
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
         <v>4.82386159896851</v>
       </c>
-      <c r="C153" s="2">
+      <c r="B153" s="1">
         <v>15.2587223052978</v>
       </c>
-      <c r="D153" s="2">
+      <c r="C153" s="1">
         <v>1766.40002441406</v>
       </c>
-      <c r="E153" s="2">
+      <c r="D153" s="1">
         <v>526.884155273438</v>
       </c>
-      <c r="F153" s="2">
+      <c r="E153" s="1">
         <v>928.522644042969</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="3">
-        <v>152</v>
-      </c>
-      <c r="B154" s="2">
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
         <v>4.82613658905029</v>
       </c>
-      <c r="C154" s="2">
+      <c r="B154" s="1">
         <v>15.2658538818359</v>
       </c>
-      <c r="D154" s="2">
+      <c r="C154" s="1">
         <v>1769.19995117187</v>
       </c>
-      <c r="E154" s="2">
+      <c r="D154" s="1">
         <v>527.345642089844</v>
       </c>
-      <c r="F154" s="2">
+      <c r="E154" s="1">
         <v>927.940307617188</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="3">
-        <v>153</v>
-      </c>
-      <c r="B155" s="2">
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
         <v>4.82966804504395</v>
       </c>
-      <c r="C155" s="2">
+      <c r="B155" s="1">
         <v>15.2879867553711</v>
       </c>
-      <c r="D155" s="2">
+      <c r="C155" s="1">
         <v>1763</v>
       </c>
-      <c r="E155" s="2">
+      <c r="D155" s="1">
         <v>527.382141113281</v>
       </c>
-      <c r="F155" s="2">
+      <c r="E155" s="1">
         <v>930.441101074219</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="3">
-        <v>154</v>
-      </c>
-      <c r="B156" s="2">
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
         <v>4.82702302932739</v>
       </c>
-      <c r="C156" s="2">
+      <c r="B156" s="1">
         <v>15.2810182571411</v>
       </c>
-      <c r="D156" s="2">
+      <c r="C156" s="1">
         <v>1768.5</v>
       </c>
-      <c r="E156" s="2">
+      <c r="D156" s="1">
         <v>527.983520507813</v>
       </c>
-      <c r="F156" s="2">
+      <c r="E156" s="1">
         <v>928.361694335938</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="3">
-        <v>155</v>
-      </c>
-      <c r="B157" s="2">
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
         <v>4.82600688934326</v>
       </c>
-      <c r="C157" s="2">
+      <c r="B157" s="1">
         <v>15.2869567871094</v>
       </c>
-      <c r="D157" s="2">
+      <c r="C157" s="1">
         <v>1770.90002441406</v>
       </c>
-      <c r="E157" s="2">
+      <c r="D157" s="1">
         <v>528.32763671875</v>
       </c>
-      <c r="F157" s="2">
+      <c r="E157" s="1">
         <v>927.51953125</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="3">
-        <v>156</v>
-      </c>
-      <c r="B158" s="2">
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
         <v>4.8239164352417</v>
       </c>
-      <c r="C158" s="2">
+      <c r="B158" s="1">
         <v>15.2774639129639</v>
       </c>
-      <c r="D158" s="2">
+      <c r="C158" s="1">
         <v>1771.80004882812</v>
       </c>
-      <c r="E158" s="2">
+      <c r="D158" s="1">
         <v>528.122192382813</v>
       </c>
-      <c r="F158" s="2">
+      <c r="E158" s="1">
         <v>926.934692382813</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="3">
-        <v>157</v>
-      </c>
-      <c r="B159" s="2">
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
         <v>4.82733774185181</v>
       </c>
-      <c r="C159" s="2">
+      <c r="B159" s="1">
         <v>15.2977962493897</v>
       </c>
-      <c r="D159" s="2">
+      <c r="C159" s="1">
         <v>1762.80004882812</v>
       </c>
-      <c r="E159" s="2">
+      <c r="D159" s="1">
         <v>528.271789550781</v>
       </c>
-      <c r="F159" s="2">
+      <c r="E159" s="1">
         <v>930.896789550781</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="3">
-        <v>158</v>
-      </c>
-      <c r="B160" s="2">
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
         <v>4.83287143707275</v>
       </c>
-      <c r="C160" s="2">
+      <c r="B160" s="1">
         <v>15.3235349655151</v>
       </c>
-      <c r="D160" s="2">
+      <c r="C160" s="1">
         <v>1768.30004882812</v>
       </c>
-      <c r="E160" s="2">
+      <c r="D160" s="1">
         <v>528.26953125</v>
       </c>
-      <c r="F160" s="2">
+      <c r="E160" s="1">
         <v>928.379211425781</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="3">
-        <v>159</v>
-      </c>
-      <c r="B161" s="2">
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
         <v>4.83121061325073</v>
       </c>
-      <c r="C161" s="2">
+      <c r="B161" s="1">
         <v>15.3206119537353</v>
       </c>
-      <c r="D161" s="2">
+      <c r="C161" s="1">
         <v>1765.80004882812</v>
       </c>
-      <c r="E161" s="2">
+      <c r="D161" s="1">
         <v>527.88232421875</v>
       </c>
-      <c r="F161" s="2">
+      <c r="E161" s="1">
         <v>929.586242675781</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="3">
-        <v>160</v>
-      </c>
-      <c r="B162" s="2">
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
         <v>4.82647466659546</v>
       </c>
-      <c r="C162" s="2">
+      <c r="B162" s="1">
         <v>15.3047151565552</v>
       </c>
-      <c r="D162" s="2">
+      <c r="C162" s="1">
         <v>1770.5</v>
       </c>
-      <c r="E162" s="2">
+      <c r="D162" s="1">
         <v>527.811462402344</v>
       </c>
-      <c r="F162" s="2">
+      <c r="E162" s="1">
         <v>927.9736328125</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="3">
-        <v>161</v>
-      </c>
-      <c r="B163" s="2">
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
         <v>4.83094882965088</v>
       </c>
-      <c r="C163" s="2">
+      <c r="B163" s="1">
         <v>15.3255214691162</v>
       </c>
-      <c r="D163" s="2">
+      <c r="C163" s="1">
         <v>1773.19995117187</v>
       </c>
-      <c r="E163" s="2">
+      <c r="D163" s="1">
         <v>528.158569335938</v>
       </c>
-      <c r="F163" s="2">
+      <c r="E163" s="1">
         <v>926.873840332031</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="3">
-        <v>162</v>
-      </c>
-      <c r="B164" s="2">
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
         <v>4.83367109298706</v>
       </c>
-      <c r="C164" s="2">
+      <c r="B164" s="1">
         <v>15.3398208618164</v>
       </c>
-      <c r="D164" s="2">
+      <c r="C164" s="1">
         <v>1773.80004882812</v>
       </c>
-      <c r="E164" s="2">
+      <c r="D164" s="1">
         <v>527.688720703125</v>
       </c>
-      <c r="F164" s="2">
+      <c r="E164" s="1">
         <v>926.738403320313</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="3">
-        <v>163</v>
-      </c>
-      <c r="B165" s="2">
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
         <v>4.8352632522583</v>
       </c>
-      <c r="C165" s="2">
+      <c r="B165" s="1">
         <v>15.3457975387573</v>
       </c>
-      <c r="D165" s="2">
+      <c r="C165" s="1">
         <v>1767.09997558594</v>
       </c>
-      <c r="E165" s="2">
+      <c r="D165" s="1">
         <v>527.262084960938</v>
       </c>
-      <c r="F165" s="2">
+      <c r="E165" s="1">
         <v>929.329467773438</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="3">
-        <v>164</v>
-      </c>
-      <c r="B166" s="2">
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
         <v>4.83234643936157</v>
       </c>
-      <c r="C166" s="2">
+      <c r="B166" s="1">
         <v>15.3384675979614</v>
       </c>
-      <c r="D166" s="2">
+      <c r="C166" s="1">
         <v>1773.69995117187</v>
       </c>
-      <c r="E166" s="2">
+      <c r="D166" s="1">
         <v>527.118774414063</v>
       </c>
-      <c r="F166" s="2">
+      <c r="E166" s="1">
         <v>926.397155761719</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="3">
-        <v>165</v>
-      </c>
-      <c r="B167" s="2">
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
         <v>4.83663606643677</v>
       </c>
-      <c r="C167" s="2">
+      <c r="B167" s="1">
         <v>15.3579044342041</v>
       </c>
-      <c r="D167" s="2">
+      <c r="C167" s="1">
         <v>1771.30004882812</v>
       </c>
-      <c r="E167" s="2">
+      <c r="D167" s="1">
         <v>527.485778808594</v>
       </c>
-      <c r="F167" s="2">
+      <c r="E167" s="1">
         <v>927.685668945313</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="3">
-        <v>166</v>
-      </c>
-      <c r="B168" s="2">
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
         <v>4.83535861968994</v>
       </c>
-      <c r="C168" s="2">
+      <c r="B168" s="1">
         <v>15.3569946289062</v>
       </c>
-      <c r="D168" s="2">
+      <c r="C168" s="1">
         <v>1768.09997558594</v>
       </c>
-      <c r="E168" s="2">
+      <c r="D168" s="1">
         <v>526.757202148438</v>
       </c>
-      <c r="F168" s="2">
+      <c r="E168" s="1">
         <v>928.974304199219</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="3">
-        <v>167</v>
-      </c>
-      <c r="B169" s="2">
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
         <v>4.83623790740967</v>
       </c>
-      <c r="C169" s="2">
+      <c r="B169" s="1">
         <v>15.3608474731445</v>
       </c>
-      <c r="D169" s="2">
+      <c r="C169" s="1">
         <v>1774.19995117187</v>
       </c>
-      <c r="E169" s="2">
+      <c r="D169" s="1">
         <v>526.744506835938</v>
       </c>
-      <c r="F169" s="2">
+      <c r="E169" s="1">
         <v>926.165344238281</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="3">
-        <v>168</v>
-      </c>
-      <c r="B170" s="2">
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
         <v>4.83549833297729</v>
       </c>
-      <c r="C170" s="2">
+      <c r="B170" s="1">
         <v>15.3570537567139</v>
       </c>
-      <c r="D170" s="2">
+      <c r="C170" s="1">
         <v>1783.90002441406</v>
       </c>
-      <c r="E170" s="2">
+      <c r="D170" s="1">
         <v>526.366027832031</v>
       </c>
-      <c r="F170" s="2">
+      <c r="E170" s="1">
         <v>922.736633300781</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="3">
-        <v>169</v>
-      </c>
-      <c r="B171" s="2">
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
         <v>4.83847570419312</v>
       </c>
-      <c r="C171" s="2">
+      <c r="B171" s="1">
         <v>15.3687877655029</v>
       </c>
-      <c r="D171" s="2">
+      <c r="C171" s="1">
         <v>1772.09997558594</v>
       </c>
-      <c r="E171" s="2">
+      <c r="D171" s="1">
         <v>526.443481445313</v>
       </c>
-      <c r="F171" s="2">
+      <c r="E171" s="1">
         <v>927.575805664063</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="3">
-        <v>170</v>
-      </c>
-      <c r="B172" s="2">
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
         <v>4.83552742004395</v>
       </c>
-      <c r="C172" s="2">
+      <c r="B172" s="1">
         <v>15.3595323562622</v>
       </c>
-      <c r="D172" s="2">
+      <c r="C172" s="1">
         <v>1785.69995117187</v>
       </c>
-      <c r="E172" s="2">
+      <c r="D172" s="1">
         <v>525.950073242188</v>
       </c>
-      <c r="F172" s="2">
+      <c r="E172" s="1">
         <v>922.1884765625</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="3">
-        <v>171</v>
-      </c>
-      <c r="B173" s="2">
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
         <v>4.83730554580688</v>
       </c>
-      <c r="C173" s="2">
+      <c r="B173" s="1">
         <v>15.3648204803467</v>
       </c>
-      <c r="D173" s="2">
+      <c r="C173" s="1">
         <v>1791.69995117187</v>
       </c>
-      <c r="E173" s="2">
+      <c r="D173" s="1">
         <v>525.955017089844</v>
       </c>
-      <c r="F173" s="2">
+      <c r="E173" s="1">
         <v>919.353332519531</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="3">
-        <v>172</v>
-      </c>
-      <c r="B174" s="2">
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
         <v>4.83458089828491</v>
       </c>
-      <c r="C174" s="2">
+      <c r="B174" s="1">
         <v>15.3529605865478</v>
       </c>
-      <c r="D174" s="2">
+      <c r="C174" s="1">
         <v>1790.19995117187</v>
       </c>
-      <c r="E174" s="2">
+      <c r="D174" s="1">
         <v>525.375305175781</v>
       </c>
-      <c r="F174" s="2">
+      <c r="E174" s="1">
         <v>920.059265136719</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="3">
-        <v>173</v>
-      </c>
-      <c r="B175" s="2">
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
         <v>4.83946228027344</v>
       </c>
-      <c r="C175" s="2">
+      <c r="B175" s="1">
         <v>15.3704204559326</v>
       </c>
-      <c r="D175" s="2">
+      <c r="C175" s="1">
         <v>1793.80004882812</v>
       </c>
-      <c r="E175" s="2">
+      <c r="D175" s="1">
         <v>525.310913085938</v>
       </c>
-      <c r="F175" s="2">
+      <c r="E175" s="1">
         <v>918.721862792969</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="3">
-        <v>174</v>
-      </c>
-      <c r="B176" s="2">
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
         <v>4.83328676223755</v>
       </c>
-      <c r="C176" s="2">
+      <c r="B176" s="1">
         <v>15.3460569381714</v>
       </c>
-      <c r="D176" s="2">
+      <c r="C176" s="1">
         <v>1791.90002441406</v>
       </c>
-      <c r="E176" s="2">
+      <c r="D176" s="1">
         <v>524.93359375</v>
       </c>
-      <c r="F176" s="2">
+      <c r="E176" s="1">
         <v>919.386535644531</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="3">
-        <v>175</v>
-      </c>
-      <c r="B177" s="2">
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
         <v>4.83425235748291</v>
       </c>
-      <c r="C177" s="2">
+      <c r="B177" s="1">
         <v>15.3453388214111</v>
       </c>
-      <c r="D177" s="2">
+      <c r="C177" s="1">
         <v>1797.69995117187</v>
       </c>
-      <c r="E177" s="2">
+      <c r="D177" s="1">
         <v>524.452697753906</v>
       </c>
-      <c r="F177" s="2">
+      <c r="E177" s="1">
         <v>916.890747070313</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="3">
-        <v>176</v>
-      </c>
-      <c r="B178" s="2">
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
         <v>4.8330888748169</v>
       </c>
-      <c r="C178" s="2">
+      <c r="B178" s="1">
         <v>15.3379793167114</v>
       </c>
-      <c r="D178" s="2">
+      <c r="C178" s="1">
         <v>1797.40002441406</v>
       </c>
-      <c r="E178" s="2">
+      <c r="D178" s="1">
         <v>524.088684082031</v>
       </c>
-      <c r="F178" s="2">
+      <c r="E178" s="1">
         <v>917.0234375</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="3">
-        <v>177</v>
-      </c>
-      <c r="B179" s="2">
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
         <v>4.83593225479126</v>
       </c>
-      <c r="C179" s="2">
+      <c r="B179" s="1">
         <v>15.345329284668</v>
       </c>
-      <c r="D179" s="2">
+      <c r="C179" s="1">
         <v>1806.30004882812</v>
       </c>
-      <c r="E179" s="2">
+      <c r="D179" s="1">
         <v>523.691711425781</v>
       </c>
-      <c r="F179" s="2">
+      <c r="E179" s="1">
         <v>912.990112304688</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="3">
-        <v>178</v>
-      </c>
-      <c r="B180" s="2">
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
         <v>4.83005809783935</v>
       </c>
-      <c r="C180" s="2">
+      <c r="B180" s="1">
         <v>15.316816329956</v>
       </c>
-      <c r="D180" s="2">
+      <c r="C180" s="1">
         <v>1804.30004882812</v>
       </c>
-      <c r="E180" s="2">
+      <c r="D180" s="1">
         <v>523.340454101563</v>
       </c>
-      <c r="F180" s="2">
+      <c r="E180" s="1">
         <v>913.858581542969</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="3">
-        <v>179</v>
-      </c>
-      <c r="B181" s="2">
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
         <v>4.8263726234436</v>
       </c>
-      <c r="C181" s="2">
+      <c r="B181" s="1">
         <v>15.295166015625</v>
       </c>
-      <c r="D181" s="2">
+      <c r="C181" s="1">
         <v>1799.40002441406</v>
       </c>
-      <c r="E181" s="2">
+      <c r="D181" s="1">
         <v>522.819946289063</v>
       </c>
-      <c r="F181" s="2">
+      <c r="E181" s="1">
         <v>915.741516113281</v>
       </c>
     </row>

--- a/correlation/input_data/BOF_data.xlsx
+++ b/correlation/input_data/BOF_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Scale" sheetId="1" r:id="rId1"/>
@@ -1002,8 +1002,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1823,8 +1823,8 @@
   <sheetPr/>
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="D5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
